--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5886" uniqueCount="1325">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3477,6 +3477,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1121/1.2828063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307/927751 </t>
   </si>
   <si>
     <t xml:space="preserve">Aning, Ben, tuning the kora: a case study of the norms of a gambian musician</t>
@@ -3871,6 +3874,9 @@
     <t xml:space="preserve">Despite noting in the text that the octave, the final interval leading to the octave is not reported. In this case I assume that the octave is perfect, and insert the missing interval.</t>
   </si>
   <si>
+    <t xml:space="preserve">Gilbert Rouget and J. Schwarz. Sur les xylophones quiheptaphoniques des malink. Rev. Musicol., 55(1):47–77, 1969. doi: 10.2307/927751</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Tracey. The matepe mbira music of rhodesia. Afr. Music, 4(4):37–61, 1970. doi: 10.21504/amj.v4i4.1681</t>
   </si>
   <si>
@@ -3943,7 +3949,9 @@
     <t xml:space="preserve">L. E. McNeil and S. Mitran. Vibrational frequencies and tuning of the african mbira. J. Acoust. Soc. Am., 123(2):1169–1178, 2008. doi: 10.1121/1.2828063</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple octaves were recorded as separate scales for each xylophone for two reasons. First, the notes are numbered. Second, there is substantial variation between octaves to consider them as distinct versions of the same scale.</t>
+    <t xml:space="preserve">Multiple octaves were recorded as separate scales for each xylophone for two reasons.
+First, the notes are numbered, so the notes can be arranged in the correct order.
+Second, there is substantial variation between octaves to consider them as distinct versions of the same scale.</t>
   </si>
   <si>
     <t xml:space="preserve">M. Kuss. Music in Latin America and the Caribbean: An Encyclopedic History: Volume 1: Performing Beliefs: Indigenous Peoples of South America, Central America, and Mexico. University of Texas Press, 2010</t>
@@ -4199,7 +4207,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4304,8 +4312,8 @@
   </sheetPr>
   <dimension ref="A1:I467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A313" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I326" activeCellId="0" sqref="I326"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H355" activeCellId="0" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14526,7 +14534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
         <v>775</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="s">
         <v>777</v>
       </c>
@@ -14578,7 +14586,7 @@
         <v>28</v>
       </c>
       <c r="H354" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I354" s="0" t="s">
         <v>29</v>
@@ -14607,7 +14615,7 @@
         <v>28</v>
       </c>
       <c r="H355" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I355" s="0" t="s">
         <v>29</v>
@@ -14636,13 +14644,13 @@
         <v>28</v>
       </c>
       <c r="H356" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I356" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="s">
         <v>782</v>
       </c>
@@ -14665,13 +14673,13 @@
         <v>28</v>
       </c>
       <c r="H357" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I357" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="s">
         <v>783</v>
       </c>
@@ -14694,13 +14702,13 @@
         <v>28</v>
       </c>
       <c r="H358" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I358" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="s">
         <v>784</v>
       </c>
@@ -14723,13 +14731,13 @@
         <v>28</v>
       </c>
       <c r="H359" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I359" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="s">
         <v>785</v>
       </c>
@@ -14752,13 +14760,13 @@
         <v>28</v>
       </c>
       <c r="H360" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I360" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="s">
         <v>786</v>
       </c>
@@ -14781,13 +14789,13 @@
         <v>28</v>
       </c>
       <c r="H361" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I361" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
         <v>787</v>
       </c>
@@ -14810,13 +14818,13 @@
         <v>28</v>
       </c>
       <c r="H362" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I362" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="s">
         <v>788</v>
       </c>
@@ -14839,13 +14847,13 @@
         <v>28</v>
       </c>
       <c r="H363" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I363" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="s">
         <v>789</v>
       </c>
@@ -14868,13 +14876,13 @@
         <v>28</v>
       </c>
       <c r="H364" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="s">
         <v>790</v>
       </c>
@@ -14897,13 +14905,13 @@
         <v>28</v>
       </c>
       <c r="H365" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I365" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="s">
         <v>791</v>
       </c>
@@ -14926,13 +14934,13 @@
         <v>28</v>
       </c>
       <c r="H366" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I366" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="s">
         <v>792</v>
       </c>
@@ -14955,7 +14963,7 @@
         <v>28</v>
       </c>
       <c r="H367" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I367" s="0" t="s">
         <v>29</v>
@@ -19534,8 +19542,8 @@
   </sheetPr>
   <dimension ref="A1:GZ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GJ1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GZ5" activeCellId="0" sqref="GZ5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FY1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GK9" activeCellId="0" sqref="GK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22448,10 +22456,10 @@
         <v>1117</v>
       </c>
       <c r="ED5" s="0" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="EE5" s="0" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="EF5" s="0" t="s">
         <v>1134</v>
@@ -22906,789 +22914,789 @@
         <v>1149</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="CB6" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="CC6" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="CD6" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="CE6" s="6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="CF6" s="6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="CG6" s="6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="CH6" s="6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="CI6" s="6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="CJ6" s="6" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="CK6" s="6" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="CL6" s="6" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="CM6" s="6" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="CN6" s="6" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="CO6" s="6" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="CP6" s="6" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="CQ6" s="6" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="CR6" s="6" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="CS6" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="CU6" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="CV6" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="CW6" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="CX6" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="CY6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="CZ6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DA6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DB6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DC6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DD6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DE6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DF6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DG6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DH6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DI6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DJ6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DK6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DL6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DM6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DN6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DO6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DP6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DQ6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DR6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DS6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DT6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DU6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DV6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DW6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DX6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DY6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DZ6" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="EA6" s="6" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="EB6" s="6" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="EC6" s="6" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="ED6" s="6" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="EE6" s="6" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="EF6" s="6" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="EG6" s="6" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="EH6" s="6" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="EI6" s="6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="EJ6" s="6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="EK6" s="6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="EL6" s="6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="EM6" s="6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="EN6" s="6" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="EO6" s="6" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="EP6" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="EQ6" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="ER6" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="ES6" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="ET6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EU6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EV6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EW6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EX6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EY6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EZ6" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="FA6" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="FB6" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="FC6" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="FD6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FE6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FF6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FG6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FH6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FI6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FJ6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FK6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FL6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FM6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FN6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FO6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FP6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FQ6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FR6" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="FS6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FT6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FU6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FV6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FW6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FX6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FY6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="FZ6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GA6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GB6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GC6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GD6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GE6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GF6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GG6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GH6" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="GI6" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="GJ6" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="GK6" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="GL6" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="GM6" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="GN6" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="GO6" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="GP6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GQ6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GR6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GS6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GT6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GU6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GV6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GW6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GX6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GY6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="GZ6" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="K7" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="L7" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="M7" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="N7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BF7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BL7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BQ7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BT7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="M7" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="S7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="X7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP7" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BE7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BG7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BL7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BM7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BN7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BO7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BP7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BQ7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BR7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BT7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="BV7" s="0" t="n">
+      <c r="BY7" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BZ7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BW7" s="0" t="n">
+      <c r="CA7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BX7" s="0" t="n">
+      <c r="CB7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE7" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="BY7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="BZ7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="CA7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="CB7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE7" s="6" t="n">
+      <c r="CF7" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CG7" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CH7" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CI7" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CJ7" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="CF7" s="6" t="n">
+      <c r="CK7" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="CG7" s="6" t="n">
+      <c r="CL7" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="CH7" s="6" t="n">
+      <c r="CM7" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="CI7" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="CJ7" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK7" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="CL7" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="CM7" s="6" t="n">
-        <v>22</v>
-      </c>
       <c r="CN7" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CO7" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CP7" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CQ7" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CR7" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CS7" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CT7" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CU7" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CV7" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CW7" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CX7" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CY7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CZ7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DA7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DB7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DC7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DD7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DE7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DF7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DG7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DH7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DI7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DJ7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DK7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DL7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DM7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DN7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DO7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DP7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DQ7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DR7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DS7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DT7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DU7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DV7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DW7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DX7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DY7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DZ7" s="6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="EA7" s="6" t="n">
         <v>4</v>
@@ -23697,10 +23705,10 @@
         <v>4</v>
       </c>
       <c r="EC7" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="ED7" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="EE7" s="6" t="n">
         <v>5</v>
@@ -23715,112 +23723,112 @@
         <v>5</v>
       </c>
       <c r="EI7" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EJ7" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EK7" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EL7" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EM7" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EN7" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="EO7" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="EP7" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="EQ7" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="ER7" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="ES7" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="ET7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EU7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EV7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EW7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EX7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EY7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="EZ7" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="FA7" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FB7" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FC7" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FD7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FE7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FF7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FG7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FH7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FI7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FJ7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FK7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FL7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FM7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FN7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FO7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FP7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FQ7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FR7" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FS7" s="3" t="n">
         <v>6</v>
@@ -23871,25 +23879,25 @@
         <v>6</v>
       </c>
       <c r="GI7" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GJ7" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GK7" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GL7" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GM7" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="GN7" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="GO7" s="3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="GP7" s="0" t="n">
         <v>7</v>
@@ -29770,7 +29778,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="M53" activeCellId="0" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29826,7 +29834,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>307</v>
@@ -29859,7 +29867,7 @@
         <v>858</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>11</v>
@@ -29870,7 +29878,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>306</v>
@@ -29903,7 +29911,7 @@
         <v>858</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>11</v>
@@ -29914,7 +29922,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>297</v>
@@ -29947,7 +29955,7 @@
         <v>858</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>11</v>
@@ -29958,7 +29966,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>295</v>
@@ -29991,7 +29999,7 @@
         <v>858</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>11</v>
@@ -30002,7 +30010,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>298</v>
@@ -30035,7 +30043,7 @@
         <v>858</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>11</v>
@@ -30046,7 +30054,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>292</v>
@@ -30079,7 +30087,7 @@
         <v>858</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>11</v>
@@ -30090,7 +30098,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>295</v>
@@ -30123,7 +30131,7 @@
         <v>858</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>11</v>
@@ -30134,7 +30142,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>294</v>
@@ -30167,7 +30175,7 @@
         <v>858</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>11</v>
@@ -30178,7 +30186,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>293</v>
@@ -30211,7 +30219,7 @@
         <v>858</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>11</v>
@@ -30222,7 +30230,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>286</v>
@@ -30255,7 +30263,7 @@
         <v>858</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>11</v>
@@ -30266,7 +30274,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>287</v>
@@ -30299,7 +30307,7 @@
         <v>858</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>11</v>
@@ -30310,7 +30318,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>286</v>
@@ -30343,7 +30351,7 @@
         <v>858</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>11</v>
@@ -30354,7 +30362,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>276</v>
@@ -30387,7 +30395,7 @@
         <v>858</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>11</v>
@@ -30398,7 +30406,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>276</v>
@@ -30431,7 +30439,7 @@
         <v>858</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>11</v>
@@ -30442,7 +30450,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>275</v>
@@ -30475,7 +30483,7 @@
         <v>858</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>11</v>
@@ -30486,7 +30494,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>276</v>
@@ -30519,7 +30527,7 @@
         <v>858</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>11</v>
@@ -30530,7 +30538,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>272</v>
@@ -30563,7 +30571,7 @@
         <v>858</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>11</v>
@@ -30574,7 +30582,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>273</v>
@@ -30607,7 +30615,7 @@
         <v>858</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>11</v>
@@ -30618,7 +30626,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>268</v>
@@ -30651,7 +30659,7 @@
         <v>858</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>11</v>
@@ -30662,7 +30670,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>261</v>
@@ -30695,7 +30703,7 @@
         <v>858</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>11</v>
@@ -30706,7 +30714,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>216</v>
@@ -30739,7 +30747,7 @@
         <v>858</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>11</v>
@@ -30750,7 +30758,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>214</v>
@@ -30783,7 +30791,7 @@
         <v>858</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>11</v>
@@ -30794,7 +30802,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>198</v>
@@ -30827,7 +30835,7 @@
         <v>858</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>11</v>
@@ -30838,7 +30846,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>306</v>
@@ -30871,7 +30879,7 @@
         <v>858</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>11</v>
@@ -30882,7 +30890,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>296</v>
@@ -30915,7 +30923,7 @@
         <v>858</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>11</v>
@@ -30926,7 +30934,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B27" s="8" t="n">
         <v>293</v>
@@ -30959,7 +30967,7 @@
         <v>858</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>11</v>
@@ -30970,7 +30978,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B28" s="8" t="n">
         <v>289</v>
@@ -31003,7 +31011,7 @@
         <v>858</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>11</v>
@@ -31014,7 +31022,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B29" s="8" t="n">
         <v>288</v>
@@ -31047,7 +31055,7 @@
         <v>858</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>11</v>
@@ -31058,7 +31066,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B30" s="8" t="n">
         <v>281</v>
@@ -31091,7 +31099,7 @@
         <v>858</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>11</v>
@@ -31102,7 +31110,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B31" s="8" t="n">
         <v>279</v>
@@ -31135,7 +31143,7 @@
         <v>858</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>11</v>
@@ -31146,7 +31154,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B32" s="8" t="n">
         <v>278</v>
@@ -31179,7 +31187,7 @@
         <v>858</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>11</v>
@@ -31190,7 +31198,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B33" s="8" t="n">
         <v>274</v>
@@ -31223,7 +31231,7 @@
         <v>858</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>11</v>
@@ -31234,7 +31242,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B34" s="8" t="n">
         <v>274</v>
@@ -31267,7 +31275,7 @@
         <v>858</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>11</v>
@@ -31278,7 +31286,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B35" s="8" t="n">
         <v>273</v>
@@ -31311,7 +31319,7 @@
         <v>858</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>11</v>
@@ -31322,7 +31330,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B36" s="8" t="n">
         <v>273</v>
@@ -31355,7 +31363,7 @@
         <v>858</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>11</v>
@@ -31366,7 +31374,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B37" s="8" t="n">
         <v>273</v>
@@ -31399,7 +31407,7 @@
         <v>858</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>11</v>
@@ -31410,7 +31418,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B38" s="8" t="n">
         <v>269</v>
@@ -31443,7 +31451,7 @@
         <v>858</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>11</v>
@@ -31454,7 +31462,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B39" s="8" t="n">
         <v>272</v>
@@ -31487,7 +31495,7 @@
         <v>858</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>11</v>
@@ -31498,7 +31506,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B40" s="8" t="n">
         <v>270</v>
@@ -31531,7 +31539,7 @@
         <v>858</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>11</v>
@@ -31542,7 +31550,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B41" s="8" t="n">
         <v>268</v>
@@ -31575,7 +31583,7 @@
         <v>858</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>11</v>
@@ -31586,7 +31594,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B42" s="8" t="n">
         <v>270</v>
@@ -31619,7 +31627,7 @@
         <v>858</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>11</v>
@@ -31630,7 +31638,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B43" s="8" t="n">
         <v>267</v>
@@ -31663,7 +31671,7 @@
         <v>858</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>11</v>
@@ -31674,7 +31682,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B44" s="8" t="n">
         <v>267</v>
@@ -31707,7 +31715,7 @@
         <v>858</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>11</v>
@@ -31718,7 +31726,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B45" s="8" t="n">
         <v>265</v>
@@ -31751,7 +31759,7 @@
         <v>858</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>11</v>
@@ -31762,7 +31770,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B46" s="8" t="n">
         <v>264</v>
@@ -31795,7 +31803,7 @@
         <v>858</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>11</v>
@@ -31806,7 +31814,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B47" s="8" t="n">
         <v>263</v>
@@ -31839,7 +31847,7 @@
         <v>858</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>11</v>
@@ -31850,7 +31858,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B48" s="8" t="n">
         <v>260</v>
@@ -31883,7 +31891,7 @@
         <v>858</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>11</v>
@@ -31894,7 +31902,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B49" s="8" t="n">
         <v>259</v>
@@ -31927,7 +31935,7 @@
         <v>858</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>11</v>
@@ -31938,7 +31946,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B50" s="8" t="n">
         <v>261</v>
@@ -31971,7 +31979,7 @@
         <v>858</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>11</v>
@@ -31982,7 +31990,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B51" s="8" t="n">
         <v>259</v>
@@ -32015,7 +32023,7 @@
         <v>858</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>11</v>
@@ -32026,7 +32034,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B52" s="8" t="n">
         <v>246</v>
@@ -32059,7 +32067,7 @@
         <v>858</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>11</v>
@@ -32086,8 +32094,8 @@
   </sheetPr>
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ7" activeCellId="0" sqref="AZ7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32097,166 +32105,166 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>132</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="Z1" s="0" t="s">
         <v>983</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AG1" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AH1" s="0" t="s">
         <v>1246</v>
       </c>
-      <c r="AH1" s="0" t="s">
-        <v>1245</v>
-      </c>
       <c r="AI1" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="AL1" s="0" t="s">
         <v>856</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AP1" s="0" t="s">
         <v>862</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32503,28 +32511,28 @@
         <v>408</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>928</v>
@@ -32578,13 +32586,13 @@
         <v>763</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32828,7 +32836,7 @@
         <v>29</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="AA5" s="0" t="s">
         <v>937</v>
@@ -32852,7 +32860,7 @@
         <v>937</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AI5" s="0" t="s">
         <v>928</v>
@@ -32906,177 +32914,177 @@
         <v>763</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34491,7 +34499,7 @@
         <v>191</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>321</v>
+        <v>180</v>
       </c>
       <c r="AG16" s="0" t="n">
         <v>205</v>
@@ -34514,7 +34522,7 @@
         <v>100</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="AG17" s="0" t="n">
         <v>173</v>
@@ -34534,7 +34542,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF18" s="0" t="n">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="AG18" s="0" t="n">
         <v>150</v>
@@ -34545,7 +34553,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF19" s="0" t="n">
-        <v>434</v>
+        <v>189</v>
       </c>
       <c r="AG19" s="0" t="n">
         <v>195</v>
@@ -34553,7 +34561,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF20" s="0" t="n">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="AG20" s="0" t="n">
         <v>221</v>
@@ -34561,7 +34569,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF21" s="0" t="n">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="AG21" s="0" t="n">
         <v>160</v>
@@ -34583,10 +34591,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34599,13 +34607,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34613,7 +34621,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34621,10 +34629,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34632,10 +34640,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34643,7 +34651,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34651,10 +34659,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34662,7 +34670,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34670,7 +34678,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34678,7 +34686,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34686,23 +34694,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1167</v>
+      <c r="B11" s="0" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>1281</v>
+      <c r="B12" s="3" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34710,7 +34718,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34718,7 +34726,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34726,7 +34734,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34734,7 +34742,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34742,7 +34750,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34750,7 +34758,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34758,9 +34766,6 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C19" s="0" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -34771,13 +34776,16 @@
       <c r="B20" s="0" t="s">
         <v>1290</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34785,10 +34793,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34796,7 +34801,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34804,10 +34812,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>1278</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34815,7 +34820,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34823,7 +34831,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34831,7 +34839,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34839,7 +34847,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34847,9 +34855,6 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C29" s="0" t="s">
         <v>1300</v>
       </c>
     </row>
@@ -34859,6 +34864,9 @@
       </c>
       <c r="B30" s="0" t="s">
         <v>1301</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34866,7 +34874,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34874,18 +34882,18 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1304</v>
+        <v>1166</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34893,15 +34901,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34909,7 +34917,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34917,7 +34925,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34925,9 +34933,6 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C38" s="0" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -34939,18 +34944,29 @@
         <v>1311</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>1313</v>
+    </row>
+    <row r="41" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -34971,8 +34987,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34984,7 +35000,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34992,7 +35008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35000,7 +35016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35008,7 +35024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35016,7 +35032,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35024,7 +35040,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35032,7 +35048,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35040,7 +35056,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35048,7 +35064,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -3041,6 +3041,9 @@
     <t xml:space="preserve">Rechberger, Herman. Scales and Modes around the World. Fennica-Gehrman, 2225</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Panpipe 1</t>
   </si>
   <si>
@@ -3054,9 +3057,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rechberger, Herman. Scales and Modes around the World. Fennica-Gehrman, 2226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">Panpipe 2</t>
@@ -17887,8 +17887,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19057,27 +19057,27 @@
         <v>2</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>859</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>860</v>
@@ -19086,7 +19086,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19542,7 +19542,7 @@
   </sheetPr>
   <dimension ref="A1:GZ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FY1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FY1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GK9" activeCellId="0" sqref="GK9"/>
     </sheetView>
   </sheetViews>
@@ -21093,10 +21093,10 @@
         <v>763</v>
       </c>
       <c r="CS3" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="CU3" s="0" t="s">
         <v>1116</v>
@@ -21506,31 +21506,31 @@
         <v>705</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>932</v>
@@ -21719,10 +21719,10 @@
         <v>185</v>
       </c>
       <c r="CS4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="CU4" s="0" t="s">
         <v>217</v>
@@ -22345,10 +22345,10 @@
         <v>763</v>
       </c>
       <c r="CS5" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="CU5" s="0" t="s">
         <v>1116</v>
@@ -34594,7 +34594,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5886" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1383">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3842,10 +3842,25 @@
     <t xml:space="preserve">Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
+    <t xml:space="preserve">Measurement device(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes on the inclusion of scales in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports octave equivalence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes on octave equivalence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Notes</t>
   </si>
   <si>
     <t xml:space="preserve">M. J. Hewitt. Musical Scales of the World. Note Tree, 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">H. Rechberger. Scales and Modes Around the World: The Complete Guide to the Scales and Modes of the World. Fennica Gehrman Ltd., 2018</t>
@@ -3868,85 +3883,217 @@
     <t xml:space="preserve">K. P. Wachsmann. An equal-stepped tuning in a ganda harp. Nature, 165(4184):40–41, 1950. doi: 10.1038/165040a0</t>
   </si>
   <si>
+    <t xml:space="preserve">Stroboconn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is noted that multiple strings are supposed to be an octave apart, and that “good octaves are the hallmark of the efficient tuner”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equidistance in tuning comes from matching the interval sizes between strings – it seems to be a choice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerhard Kubik. Harp music of the azande and related peoples in the central african republic: (part i horizontal harp playing). Afr. Music, 3(3):37–76, 1964</t>
   </si>
   <si>
     <t xml:space="preserve">Despite noting in the text that the octave, the final interval leading to the octave is not reported. In this case I assume that the octave is perfect, and insert the missing interval.</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Contrary movement from unison into octave and the reverse is a frequent practice in Azande harp music”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Each player seems to tune his instrument to fit best the range of his voice and that of the choir”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monochord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“If men and women sing together the result is generally in parallel octaves”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned clearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Seldom does the interval go beyond one full tone and rarely does the compass of a song contain more than one octave.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gilbert Rouget and J. Schwarz. Sur les xylophones quiheptaphoniques des malink. Rev. Musicol., 55(1):47–77, 1969. doi: 10.2307/927751</t>
   </si>
   <si>
+    <t xml:space="preserve">French.. ask Francois</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Tracey. The matepe mbira music of rhodesia. Afr. Music, 4(4):37–61, 1970. doi: 10.21504/amj.v4i4.1681</t>
   </si>
   <si>
+    <t xml:space="preserve">Makes reference to “octave transpositions”; “all seven index reeds are often played in octave unison”</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Tracey. The nyanga panpipe dance. Afr. Music, 5(1):73–89, 1971. doi: 10.21504/amj.v5i1.1152</t>
   </si>
   <si>
+    <t xml:space="preserve">“In common with other reedpipe dances that have been described, the maker does not tune according to an abstracted scale. He does not tune each note in turn up or down the scale, and he does not specifically tune together the same notes on different panpipes, or check octaves or fifths. The only method seems to be to play the actual music that belongs to it, on a set that is to be tuned, and see if it fits with what is expected. Then two different panpipes of a similar pitch range are tested together, and so on through the set. For testing any particular panpipe, the one most often chosen to play against it is the one that stands next to it during the dance.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 cents resolution given, but no measurement device specified</t>
+  </si>
+  <si>
     <t xml:space="preserve">W. Surjodiningrat, A. Susanto, and P. J. Sudarjana. Tone Measurements of Outstanding Javanese Gamelans in Jogjakarta and Surakarta. Gadjah Mada University Press, 1972</t>
   </si>
   <si>
     <t xml:space="preserve">D. Morton and C. Duriyanga. The Traditional Music of Thailand, volume 8. Univ of California Press, 1976</t>
   </si>
   <si>
+    <t xml:space="preserve">Monochord &amp; Stroboconn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentions methods of playing simultaneous octaves: “kro” and “kep”.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joerg Haeberli. Twelve nasca panpipes: A study. Ethnomusicology, 23(1):57–74, 1979. doi: 10.2307/851338</t>
   </si>
   <si>
+    <t xml:space="preserve">The interval between the first note and its overblown harmonic is not included for consistency (since only the overblown harmonic for one note is reported)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not know whether overblown harmonics were used by the original players.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerhard Kubik. Likembe tunings of kufuna kandonga (angola). Afr. Music, 6(1):70–88, 1980</t>
   </si>
   <si>
+    <t xml:space="preserve">Mentions singing in parallel octaves. Likembe is tuned consistently to within 9 Hz of an octave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Tunings taken from the same instrument, tuned by the same player on different days. “Kufuna has never shown any sign that he conceived of more than precisely one tuning pattern for his likembe. He always tuned his instrument to the same hexa- tonic scale, though with certain objectively measurable fluctuations in the intervals. These fluctuations, however, occurred within a clearly delimited margin of tolerance that was intra-culturally acceptable to him.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">W. Van Zanten. The equidistant heptatonic scale of the asena in malawi. Afr. Music, 6(1):107–125, 1980. doi: 10.21504/amj. V6i1.1099</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuning forks; measurement error noted as 9 cents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of the tuning procedure is to “check the octaves”.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hugo Zemp. Melanesian solo polyphonic panpipe music. Ethnomusicology, 25(3):383–418, 1981. doi: 10.2307/851551</t>
   </si>
   <si>
+    <t xml:space="preserve">Evidence that parallel octaves are played, and they have a name for the octave: “the octaves were blown in parallel by two instruments of different sizes”; “Sunai and To'ihi'ona from Hautahe were the only musicians who used this term for the relationship of an octave, the common designation being suri 'au or aano suri”</t>
+  </si>
+  <si>
     <t xml:space="preserve">B. A. Aning. Tuning the kora: A case study of the norms of a gambian musician. J. Afr. Stud., 9(3):164, 1982</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuning forks; same range of tuning forks as [16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The author writes about octaves in the tuning of the kora, and notes that many strings are an octave apart. However, deviations from the octave leave the author unsure about whether there is a systematically regular tuning pattern for the kora. However there are a remarkable number of strings tuned to within 20 cents of an octave. The author repeatedly neglects to take into account imprecision in both tuning fork measurements, and the human ear, as acceptable reasons for deviations from theoretical ideals.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ho Lu-Ting and Han Kuo-huang. On chinese scales and national modes. Asian Music, 14(1):132–154, 1982. doi: 10.2307/ 834047</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Despite being written on Western staff notation, I have assumed that these scales follow the Shi-er-lu tuning system.</t>
   </si>
   <si>
+    <t xml:space="preserve">The author remarks little on the use of the octave, and seems to have a similar understanding to that of Western music theory. “The Chinese use wusheng, and qisheng liusheng, to denote and 7-tone 6-tone, 5-tone, yinjie scales These terms refer to the number of pitches respectively. within an octave.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">G. Kubik. A structural examination of homophonic multi-part singing in east and central africa. Anuario Musical, 39:27, 1984</t>
   </si>
   <si>
+    <t xml:space="preserve">“the man’s and the woman’s vocal lines sometimes sound in octaves...”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerhard Kubik. African tone-systems: A reassessment. Yearb. Tradit. Music, 17:31–63, 1985. doi: 10.2307/768436</t>
   </si>
   <si>
+    <t xml:space="preserve">“The intervals struck simultaneously in the xylophone music of southern Cameroon are mainly thirds and octaves”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Robert Gottlieb. Sudan ii: Music of the blue nile province; the ingessana and berta tribes, 1986</t>
   </si>
   <si>
+    <t xml:space="preserve">Not mentioned. Intervals are measured to the nearest 1 cent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“This may be an intentional stretching of the octave since the same tuning is consistently used in performances”</t>
+  </si>
+  <si>
     <t xml:space="preserve">R. Yu-An, E. C. Carterette, and W. Yu-Kui. A comparison of the musical scales of the ancient chinese bronze bell ensemble and the modern bamboo flute. Percept. Psychophys., 41(6):547–562, 1987. doi: 10.3758/BF03210489</t>
   </si>
   <si>
+    <t xml:space="preserve">Briiel &amp; Kjaer Type 2300 High-Resolution Signal Analyzer; a group of listeners matched computer generated sine tones to the fundamental frequencies of the instruments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mention is made of how the instruments were played and whether octaves are prominent. The authors note that both flute and bells have a ‘true octave’.</t>
+  </si>
+  <si>
     <t xml:space="preserve">D. H. Keefe, E. M. Burns, and P. Nguyen. Vietnamese modal scales of the dan tranh. Music Percept., 8(4):449–468, 1991. doi: 10.2307/40285522</t>
   </si>
   <si>
+    <t xml:space="preserve">Peterson tuner; 1 cent accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Traditional Vietnamese music, like many other music culture octave equivalence and uses a scale system with discrete pitch classes.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Tracey. Kambazithe makolekole and his valimba group: A glimpse of the technique of the sena xylophone. Afr. Music, 7 (1):82–104, 1991. doi: 10.21504/amj.v7i1.1932</t>
   </si>
   <si>
+    <t xml:space="preserve">It is noted of the player/tuner that “he checks octaves” while tuning.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edward C. Carterette, Roger A. Kendall, and Sue Carole De Vale. Comparative acoustical and psychoacoustical analyses of gamelan instrument tones. Journal of the Acoustical Society of Japan (E), 14(6):383–396, 1993. doi: 10.1250/ast.14.383</t>
   </si>
   <si>
+    <t xml:space="preserve">Hewlett-Packard 5512A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretched octaves have been well-documented in Gamelan music, and the octave is repeatedly referred to here.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Albrecht Schneider. Sound, pitch, and scale: From ”tone measurements” to sonological analysis in ethnomusicology. Ethno- musicology, 45(3):489–519, 2001. doi: 10.2307/852868</t>
   </si>
   <si>
+    <t xml:space="preserve">Computational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretched octaves have been well-documented in Gamelan music.</t>
+  </si>
+  <si>
     <t xml:space="preserve">K. Attakitmongcol, R. Chinvejkitvanich, and S. Sujitjorn. Characterization of traditional thai musical scale. In Proceedings of the 5th WSEAS International Conference on Acoustics and Music: Theory &amp; Applications (AMTA04), 2004</t>
   </si>
   <si>
+    <t xml:space="preserve">Refers to Thai octave; notes that the octave is used in theory.</t>
+  </si>
+  <si>
     <t xml:space="preserve">J. Zhang, X. Xiao, and Y. K. Lee. The early development of music. analysis of the jiahu bone flutes. Antiquity, 78(302): 769778, 2004. doi: 10.1017/S0003598X00113432</t>
   </si>
   <si>
     <t xml:space="preserve">Despite recording cents to an accuracy of 1 cent, many intervals fall on exact 12-TET intervals. Given the leeway in tuning for flutes this looks like a potential case of bias on part of the researchers. Nonetheless, I reserve judgment and include the scales.</t>
   </si>
   <si>
+    <t xml:space="preserve">Not possible to establish for these prehistoric flutes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">W. A. Sethares. Tuning, Timbre, Spectrum, Scale. Springer Science &amp; Business Media, 2005</t>
   </si>
   <si>
     <t xml:space="preserve">L. E. McNeil and S. Mitran. Vibrational frequencies and tuning of the african mbira. J. Acoust. Soc. Am., 123(2):1169–1178, 2008. doi: 10.1121/1.2828063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korg AT-12 Auto Chromatic tuner</t>
   </si>
   <si>
     <t xml:space="preserve">Multiple octaves were recorded as separate scales for each xylophone for two reasons.
@@ -3954,7 +4101,13 @@
 Second, there is substantial variation between octaves to consider them as distinct versions of the same scale.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pitches tend to have the same name across multiple octaves (with the exception of the ‘baana’ pitch)</t>
+  </si>
+  <si>
     <t xml:space="preserve">M. Kuss. Music in Latin America and the Caribbean: An Encyclopedic History: Volume 1: Performing Beliefs: Indigenous Peoples of South America, Central America, and Mexico. University of Texas Press, 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… lost access… must buy the book to obtain info</t>
   </si>
   <si>
     <r>
@@ -3987,22 +4140,40 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">“However, many tuners do not intend to tune the octave to a ratio of 1:2, but aim for a marginally larger interval.” Marginally here meaning about 10 cents.</t>
+  </si>
+  <si>
     <t xml:space="preserve">N. Wisuttipat. Relative nature of thai traditional music through its tuning system. International Journal of Creative and Arts Studies, 2(1):86–97, 2015. doi: 10.24821/ijcas.v2i1.1441</t>
   </si>
   <si>
+    <t xml:space="preserve">Electronic tuner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See above for references on Thai music.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Morkonr, S. Punkubutra, et al. The collecting process of xylophone’s sound d (ranād xek) from art to numerical data. In 2018 International Conference on Engineering, Applied Sciences, and Technology (ICEAST), pages 1–4, 2018. doi: 10.1109/ ICEAST.2018.8434434</t>
   </si>
   <si>
     <t xml:space="preserve">R. Bader. Temperament in tuning systems of southeast asia and ancient india. In Computational Phonogram Archiving, pages 75–107. Springer, 2019. doi: 10.1007/978-3-030-02695-0 3</t>
   </si>
   <si>
+    <t xml:space="preserve">The author measured the tuning of Cambodian instruments bought in Russia… no mention is made of the original performers.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C. M. L. Kimberlin. Masinqo and the Nature of Qanat. PhD thesis, 1976</t>
   </si>
   <si>
     <t xml:space="preserve">Inferred from recordings</t>
   </si>
   <si>
+    <t xml:space="preserve">“Qanat is an interval set which consists of five basic pitches plus the octave and provides the tonal basis for any musical composition.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unjung Nam. Pitch distributions in korean court music: Evidence consistent with tonal hierarchies. Music Percept., 16(2): 243–247, 1998. doi: 10.2307/40285789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author barely discusses the octave.</t>
   </si>
   <si>
     <t xml:space="preserve">S. Weisser and F. Falceto. Investigating qanat in amhara secular music: An acoustic and historical study. Annales d’thiopie, 28(1):299–322, 2013. doi: 10.3406/ethio.2013.1539</t>
@@ -4010,6 +4181,9 @@
   <si>
     <t xml:space="preserve">Despite noting in the text that the octave, the final interval leading to the octave is not reported. In this case I assume that the octave is perfect, and insert the missing interval.
 Inferred from recordings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See reference [38] for discussion of qanat</t>
   </si>
   <si>
     <t xml:space="preserve">Reasons for not using sources</t>
@@ -4083,12 +4257,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -4139,7 +4319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4184,8 +4364,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4197,6 +4393,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4207,7 +4463,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4312,7 +4568,7 @@
   </sheetPr>
   <dimension ref="A1:I467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H355" activeCellId="0" sqref="H355"/>
     </sheetView>
   </sheetViews>
@@ -17887,7 +18143,7 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -19542,8 +19798,8 @@
   </sheetPr>
   <dimension ref="A1:GZ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FY1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GK9" activeCellId="0" sqref="GK9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FA7" activeCellId="0" sqref="FA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29777,7 +30033,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M53" activeCellId="0" sqref="M53"/>
     </sheetView>
   </sheetViews>
@@ -32094,7 +32350,7 @@
   </sheetPr>
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -34591,382 +34847,731 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="283.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="221.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="71.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="86.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="108"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="88.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="12" t="s">
         <v>1270</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="12" t="s">
         <v>1271</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="F9" s="12" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="B10" s="12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="B11" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="C12" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="15" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="D15" s="12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="F16" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="B17" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="12" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="E23" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="F24" s="12" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>1294</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+      <c r="E38" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
+      <c r="B39" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
+      <c r="B40" s="12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1315</v>
+      <c r="B41" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1373</v>
       </c>
     </row>
   </sheetData>
@@ -34987,7 +35592,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -35000,7 +35605,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1316</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35008,7 +35613,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1317</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35016,7 +35621,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1318</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35024,7 +35629,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1319</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35032,7 +35637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1320</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35040,7 +35645,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1321</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35048,7 +35653,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1322</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35056,7 +35661,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1323</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35064,7 +35669,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1324</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="1387">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3848,19 +3848,25 @@
     <t xml:space="preserve">Notes on the inclusion of scales in the database</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports octave equivalence</t>
+    <t xml:space="preserve">Players exhibit octave?</t>
   </si>
   <si>
     <t xml:space="preserve">Notes on octave equivalence</t>
   </si>
   <si>
+    <t xml:space="preserve">Sources indicate that octave is generally used in culture?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other Notes</t>
   </si>
   <si>
     <t xml:space="preserve">M. J. Hewitt. Musical Scales of the World. Note Tree, 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too many cultures, too little information</t>
   </si>
   <si>
     <t xml:space="preserve">H. Rechberger. Scales and Modes Around the World: The Complete Guide to the Scales and Modes of the World. Fennica Gehrman Ltd., 2018</t>
@@ -3901,31 +3907,31 @@
     <t xml:space="preserve">Despite noting in the text that the octave, the final interval leading to the octave is not reported. In this case I assume that the octave is perfect, and insert the missing interval.</t>
   </si>
   <si>
+    <t xml:space="preserve">“Contrary movement from unison into octave and the reverse is a frequent practice in Azande harp music”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Each player seems to tune his instrument to fit best the range of his voice and that of the choir”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monochord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“If men and women sing together the result is generally in parallel octaves”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mentioned clearly</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">“Contrary movement from unison into octave and the reverse is a frequent practice in Azande harp music”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Each player seems to tune his instrument to fit best the range of his voice and that of the choir”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monochord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“If men and women sing together the result is generally in parallel octaves”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not mentioned clearly</t>
-  </si>
-  <si>
     <t xml:space="preserve">“Seldom does the interval go beyond one full tone and rarely does the compass of a song contain more than one octave.”</t>
   </si>
   <si>
     <t xml:space="preserve">Gilbert Rouget and J. Schwarz. Sur les xylophones quiheptaphoniques des malink. Rev. Musicol., 55(1):47–77, 1969. doi: 10.2307/927751</t>
   </si>
   <si>
-    <t xml:space="preserve">French.. ask Francois</t>
+    <t xml:space="preserve">The author measured the tuning of instruments and remarks that the tuning conforms to a heptatonic scale such that notes are an octave apart; no mention is made of the original performers.</t>
   </si>
   <si>
     <t xml:space="preserve">A. Tracey. The matepe mbira music of rhodesia. Afr. Music, 4(4):37–61, 1970. doi: 10.21504/amj.v4i4.1681</t>
@@ -3946,6 +3952,15 @@
     <t xml:space="preserve">W. Surjodiningrat, A. Susanto, and P. J. Sudarjana. Tone Measurements of Outstanding Javanese Gamelans in Jogjakarta and Surakarta. Gadjah Mada University Press, 1972</t>
   </si>
   <si>
+    <t xml:space="preserve">Electronic / numerical analysis; “frequency differences of about 0.1 percent were easily detected”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors mention that they expected notes to be separated by octaves, and note that this is often the case. However, what is described as ‘octave deviations’ are found to be as great as 63 cents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes; REF</t>
+  </si>
+  <si>
     <t xml:space="preserve">D. Morton and C. Duriyanga. The Traditional Music of Thailand, volume 8. Univ of California Press, 1976</t>
   </si>
   <si>
@@ -3994,13 +4009,11 @@
     <t xml:space="preserve">Tuning forks; same range of tuning forks as [16]</t>
   </si>
   <si>
-    <t xml:space="preserve">The author writes about octaves in the tuning of the kora, and notes that many strings are an octave apart. However, deviations from the octave leave the author unsure about whether there is a systematically regular tuning pattern for the kora. However there are a remarkable number of strings tuned to within 20 cents of an octave. The author repeatedly neglects to take into account imprecision in both tuning fork measurements, and the human ear, as acceptable reasons for deviations from theoretical ideals.</t>
+    <t xml:space="preserve">The author writes about octaves in the tuning of the kora, and notes that many strings are an octave apart. However, deviations from the octave leave the author unsure about whether there is a systematically regular tuning pattern for the kora. However there are a remarkable number of strings tuned to within 20 cents of an octave. The author repeatedly neglects to take into account imprecision in both tuning fork measurements, and the human ear, as acceptable reasons for deviations from theoretical ideals.
+Incidentally, it is noted that the tuner pays particular attention to the intonation of two sets of strings, each a fifth apart.</t>
   </si>
   <si>
     <t xml:space="preserve">Ho Lu-Ting and Han Kuo-huang. On chinese scales and national modes. Asian Music, 14(1):132–154, 1982. doi: 10.2307/ 834047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Despite being written on Western staff notation, I have assumed that these scales follow the Shi-er-lu tuning system.</t>
@@ -4101,7 +4114,7 @@
 Second, there is substantial variation between octaves to consider them as distinct versions of the same scale.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pitches tend to have the same name across multiple octaves (with the exception of the ‘baana’ pitch)</t>
+    <t xml:space="preserve">Pitches tend to have the same name across multiple octaves (with the exception of the ‘baana’ pitch); this seems like evidence of equivalence on the part of the performers.</t>
   </si>
   <si>
     <t xml:space="preserve">M. Kuss. Music in Latin America and the Caribbean: An Encyclopedic History: Volume 1: Performing Beliefs: Indigenous Peoples of South America, Central America, and Mexico. University of Texas Press, 2010</t>
@@ -4257,18 +4270,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -4319,7 +4326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4376,14 +4383,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4393,66 +4392,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -34847,10 +34786,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34861,31 +34800,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="86.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="25.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="108"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="88.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="12" width="88.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>1275</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34893,38 +34835,56 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E2" s="12" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>1279</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34932,19 +34892,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>1286</v>
+        <v>1287</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34952,22 +34912,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G6" s="12" t="s">
         <v>1291</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34978,13 +34938,13 @@
         <v>1167</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34995,67 +34955,67 @@
         <v>1170</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>1296</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1277</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1296</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
@@ -35063,21 +35023,30 @@
         <v>1168</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>1303</v>
+      <c r="B13" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1306</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1277</v>
+        <v>1296</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35085,36 +35054,36 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35122,19 +35091,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>1312</v>
+        <v>1316</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35142,16 +35111,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35159,33 +35128,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35193,53 +35162,56 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1322</v>
+        <v>1278</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1328</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35247,56 +35219,59 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>1337</v>
+        <v>1341</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35304,33 +35279,36 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>1342</v>
+        <v>1346</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35338,53 +35316,59 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1349</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1351</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35392,30 +35376,33 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1349</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35426,67 +35413,70 @@
         <v>1166</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>1362</v>
+        <v>1366</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35494,50 +35484,56 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1366</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>1368</v>
+        <v>1372</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35545,33 +35541,39 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1374</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>1373</v>
+        <v>1377</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
@@ -35605,7 +35607,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35613,7 +35615,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35621,7 +35623,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35629,7 +35631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35637,7 +35639,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35645,7 +35647,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35653,7 +35655,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35661,7 +35663,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35669,7 +35671,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11521" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11589" uniqueCount="2008">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3917,13 +3917,13 @@
     <t xml:space="preserve">167;180;166;166;160;180;180;170;167;171;167;178;176;178;161;168;194</t>
   </si>
   <si>
-    <t xml:space="preserve">57;166;467;381;127;220;128;125;220;226;154;153;140;207;144;176;189;211;107;220</t>
+    <t xml:space="preserve">61;170;471;386;112;231;130;121;219;231;155;142;146;210;142;173;195;208;95;231</t>
   </si>
   <si>
     <t xml:space="preserve">Aning, Ben, tuning the kora: a case study of the norms of a gambian musician</t>
   </si>
   <si>
-    <t xml:space="preserve">207;187;350;137;216;164;75;236;189;167;133;207;143;137;202;229;149;133;236</t>
+    <t xml:space="preserve">186;194;333;351;103;248;165;77;234;187;169;137;202;141;143;200;228;149;137;231</t>
   </si>
   <si>
     <t xml:space="preserve">189;312;197;193</t>
@@ -4905,6 +4905,48 @@
   </si>
   <si>
     <t xml:space="preserve">150;190;80;100;160;140;180;160;150;195;155;130;170;205;120;270;135;130;210;120;190;90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355;141;179;167;135;191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundberg, 1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spilåpipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372;135;175;139;164;174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188;327;186;192;108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copeland, Benin – 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trombone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227;160;307;192</t>
   </si>
   <si>
     <t xml:space="preserve">Mardiswara</t>
@@ -6054,7 +6096,16 @@
     <t xml:space="preserve">Author discusses playing of the second harmonics, corresponding to an octave above the fundamental.</t>
   </si>
   <si>
-    <t xml:space="preserve">???</t>
+    <t xml:space="preserve">No mention is made of how the instruments were played.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Guillermo Abadia Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This source only provided absolute frequencies for notes in some recorded songs, along with transcriptions. I myself converted these into exact scales; methodology and code will be published somewhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the author does not directly address the use of the octave, it is clear that the players are heavily influenced by western music. See Fig 3 for a player’s use of solfege notation; the transcriptions were made by one of the players, on Western staff notation, which has octave notes clearly shown; one player mentions using an electronic tuner on a mobile phone.</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -6094,7 +6145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6122,11 +6173,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -6178,7 +6224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6220,10 +6266,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6383,7 +6425,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6394,11 +6436,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>1981</v>
+      <c r="A1" s="12" t="s">
+        <v>1998</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1982</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1983</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1984</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1985</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1986</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,7 +6480,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1987</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1988</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,7 +6496,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1989</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1990</v>
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -6646,10 +6688,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O468"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O208" activeCellId="0" sqref="O208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H467" activeCellId="0" sqref="H467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28618,9 +28660,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -31636,10 +31675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ233"/>
+  <dimension ref="A1:AJ237"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35821,7 +35860,7 @@
       <c r="AD75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>1291</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -35883,7 +35922,7 @@
       <c r="AD76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>1293</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -35948,7 +35987,7 @@
       <c r="A78" s="10" t="n">
         <v>81</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="5" t="s">
         <v>1295</v>
       </c>
       <c r="C78" s="0" t="s">
@@ -36007,7 +36046,7 @@
       <c r="A79" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="5" t="s">
         <v>1297</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -43594,6 +43633,194 @@
       </c>
       <c r="O233" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="J234" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K234" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M234" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="J235" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L235" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M235" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J236" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K236" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L236" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M236" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="G237" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L237" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M237" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -43681,10 +43908,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -43699,7 +43926,7 @@
         <v>889</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>12</v>
@@ -43714,7 +43941,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>903</v>
@@ -43728,10 +43955,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1629</v>
+        <v>1643</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1630</v>
+        <v>1644</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -43746,7 +43973,7 @@
         <v>889</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>12</v>
@@ -43761,7 +43988,7 @@
         <v>57</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>903</v>
@@ -43775,10 +44002,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1631</v>
+        <v>1645</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1632</v>
+        <v>1646</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -43793,7 +44020,7 @@
         <v>889</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>12</v>
@@ -43808,7 +44035,7 @@
         <v>57</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>903</v>
@@ -43822,10 +44049,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1633</v>
+        <v>1647</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -43840,7 +44067,7 @@
         <v>889</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>12</v>
@@ -43855,7 +44082,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>903</v>
@@ -43869,10 +44096,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1</v>
@@ -43887,7 +44114,7 @@
         <v>889</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>12</v>
@@ -43902,7 +44129,7 @@
         <v>57</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>903</v>
@@ -43916,10 +44143,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1</v>
@@ -43934,7 +44161,7 @@
         <v>889</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>12</v>
@@ -43949,7 +44176,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>903</v>
@@ -43963,10 +44190,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1</v>
@@ -43981,7 +44208,7 @@
         <v>889</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>12</v>
@@ -43996,7 +44223,7 @@
         <v>57</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>903</v>
@@ -44010,10 +44237,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1</v>
@@ -44028,7 +44255,7 @@
         <v>889</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>12</v>
@@ -44043,7 +44270,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>903</v>
@@ -44057,10 +44284,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1644</v>
+        <v>1658</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1</v>
@@ -44075,7 +44302,7 @@
         <v>889</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>12</v>
@@ -44090,7 +44317,7 @@
         <v>57</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>903</v>
@@ -44104,10 +44331,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1645</v>
+        <v>1659</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
@@ -44122,7 +44349,7 @@
         <v>889</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>12</v>
@@ -44137,7 +44364,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>903</v>
@@ -44151,10 +44378,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1647</v>
+        <v>1661</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1648</v>
+        <v>1662</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1</v>
@@ -44169,7 +44396,7 @@
         <v>889</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>12</v>
@@ -44184,7 +44411,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>903</v>
@@ -44198,10 +44425,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
@@ -44216,7 +44443,7 @@
         <v>889</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>12</v>
@@ -44231,7 +44458,7 @@
         <v>57</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>903</v>
@@ -44245,10 +44472,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1651</v>
+        <v>1665</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1652</v>
+        <v>1666</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -44263,7 +44490,7 @@
         <v>889</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>12</v>
@@ -44278,7 +44505,7 @@
         <v>57</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>903</v>
@@ -44292,10 +44519,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1653</v>
+        <v>1667</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1</v>
@@ -44310,7 +44537,7 @@
         <v>889</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>12</v>
@@ -44325,7 +44552,7 @@
         <v>57</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>903</v>
@@ -44339,10 +44566,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1655</v>
+        <v>1669</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1656</v>
+        <v>1670</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -44357,7 +44584,7 @@
         <v>889</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>12</v>
@@ -44372,7 +44599,7 @@
         <v>57</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>903</v>
@@ -44386,10 +44613,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1657</v>
+        <v>1671</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>1</v>
@@ -44404,7 +44631,7 @@
         <v>889</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>12</v>
@@ -44419,7 +44646,7 @@
         <v>57</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>903</v>
@@ -44433,10 +44660,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1659</v>
+        <v>1673</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1660</v>
+        <v>1674</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>1</v>
@@ -44451,7 +44678,7 @@
         <v>889</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>12</v>
@@ -44466,7 +44693,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>903</v>
@@ -44480,10 +44707,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1661</v>
+        <v>1675</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>1</v>
@@ -44498,7 +44725,7 @@
         <v>889</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -44513,7 +44740,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>903</v>
@@ -44527,10 +44754,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1664</v>
+        <v>1678</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>1</v>
@@ -44545,7 +44772,7 @@
         <v>889</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -44560,7 +44787,7 @@
         <v>57</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>903</v>
@@ -44574,10 +44801,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>1665</v>
+        <v>1679</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1666</v>
+        <v>1680</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>1</v>
@@ -44592,7 +44819,7 @@
         <v>889</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -44607,7 +44834,7 @@
         <v>57</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>903</v>
@@ -44621,10 +44848,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>1667</v>
+        <v>1681</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1668</v>
+        <v>1682</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>1</v>
@@ -44639,7 +44866,7 @@
         <v>889</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -44654,7 +44881,7 @@
         <v>57</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>903</v>
@@ -44668,10 +44895,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>1669</v>
+        <v>1683</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1670</v>
+        <v>1684</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>1</v>
@@ -44686,7 +44913,7 @@
         <v>889</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>12</v>
@@ -44701,7 +44928,7 @@
         <v>57</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>903</v>
@@ -44715,10 +44942,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1671</v>
+        <v>1685</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1672</v>
+        <v>1686</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
@@ -44733,7 +44960,7 @@
         <v>889</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>12</v>
@@ -44748,7 +44975,7 @@
         <v>57</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>903</v>
@@ -44762,10 +44989,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -44780,7 +45007,7 @@
         <v>889</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>12</v>
@@ -44795,7 +45022,7 @@
         <v>57</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>903</v>
@@ -44809,10 +45036,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1674</v>
+        <v>1688</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1675</v>
+        <v>1689</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
@@ -44827,7 +45054,7 @@
         <v>889</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>12</v>
@@ -44842,7 +45069,7 @@
         <v>57</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>903</v>
@@ -44856,10 +45083,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1676</v>
+        <v>1690</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1677</v>
+        <v>1691</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
@@ -44874,7 +45101,7 @@
         <v>889</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>12</v>
@@ -44889,7 +45116,7 @@
         <v>57</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>903</v>
@@ -44903,10 +45130,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1678</v>
+        <v>1692</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1679</v>
+        <v>1693</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1</v>
@@ -44921,7 +45148,7 @@
         <v>889</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
@@ -44936,7 +45163,7 @@
         <v>57</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>903</v>
@@ -44950,10 +45177,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1633</v>
+        <v>1647</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1680</v>
+        <v>1694</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
@@ -44968,7 +45195,7 @@
         <v>889</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>12</v>
@@ -44983,7 +45210,7 @@
         <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>903</v>
@@ -44997,10 +45224,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1681</v>
+        <v>1695</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1682</v>
+        <v>1696</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
@@ -45015,7 +45242,7 @@
         <v>889</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>12</v>
@@ -45030,7 +45257,7 @@
         <v>57</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>903</v>
@@ -45044,10 +45271,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1683</v>
+        <v>1697</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1684</v>
+        <v>1698</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>1</v>
@@ -45062,7 +45289,7 @@
         <v>889</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>12</v>
@@ -45077,7 +45304,7 @@
         <v>57</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>903</v>
@@ -45091,10 +45318,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1629</v>
+        <v>1643</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
@@ -45109,7 +45336,7 @@
         <v>889</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>12</v>
@@ -45124,7 +45351,7 @@
         <v>57</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>903</v>
@@ -45138,10 +45365,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1686</v>
+        <v>1700</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
@@ -45156,7 +45383,7 @@
         <v>889</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>12</v>
@@ -45171,7 +45398,7 @@
         <v>57</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>903</v>
@@ -45185,10 +45412,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1687</v>
+        <v>1701</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1688</v>
+        <v>1702</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1</v>
@@ -45203,7 +45430,7 @@
         <v>889</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>12</v>
@@ -45218,7 +45445,7 @@
         <v>57</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>903</v>
@@ -45232,10 +45459,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1689</v>
+        <v>1703</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
@@ -45250,7 +45477,7 @@
         <v>889</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>12</v>
@@ -45265,7 +45492,7 @@
         <v>57</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>903</v>
@@ -45279,10 +45506,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1692</v>
+        <v>1706</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>1</v>
@@ -45297,7 +45524,7 @@
         <v>889</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>12</v>
@@ -45312,7 +45539,7 @@
         <v>57</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>903</v>
@@ -45326,10 +45553,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1693</v>
+        <v>1707</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1694</v>
+        <v>1708</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>1</v>
@@ -45344,7 +45571,7 @@
         <v>889</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>12</v>
@@ -45359,7 +45586,7 @@
         <v>57</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>903</v>
@@ -45373,10 +45600,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1695</v>
+        <v>1709</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1696</v>
+        <v>1710</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
@@ -45391,7 +45618,7 @@
         <v>889</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12</v>
@@ -45406,7 +45633,7 @@
         <v>57</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>903</v>
@@ -45420,10 +45647,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1659</v>
+        <v>1673</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1697</v>
+        <v>1711</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1</v>
@@ -45438,7 +45665,7 @@
         <v>889</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>12</v>
@@ -45453,7 +45680,7 @@
         <v>57</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>903</v>
@@ -45467,10 +45694,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1698</v>
+        <v>1712</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1699</v>
+        <v>1713</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1</v>
@@ -45485,7 +45712,7 @@
         <v>889</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>12</v>
@@ -45500,7 +45727,7 @@
         <v>57</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>903</v>
@@ -45514,10 +45741,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1700</v>
+        <v>1714</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1701</v>
+        <v>1715</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>1</v>
@@ -45532,7 +45759,7 @@
         <v>889</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>12</v>
@@ -45547,7 +45774,7 @@
         <v>57</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>903</v>
@@ -45561,10 +45788,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1702</v>
+        <v>1716</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1703</v>
+        <v>1717</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
@@ -45579,7 +45806,7 @@
         <v>889</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>12</v>
@@ -45594,7 +45821,7 @@
         <v>57</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>903</v>
@@ -45608,10 +45835,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>1704</v>
+        <v>1718</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1705</v>
+        <v>1719</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
@@ -45626,7 +45853,7 @@
         <v>889</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>12</v>
@@ -45641,7 +45868,7 @@
         <v>57</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>903</v>
@@ -45655,10 +45882,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>1706</v>
+        <v>1720</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1707</v>
+        <v>1721</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
@@ -45673,7 +45900,7 @@
         <v>889</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>12</v>
@@ -45688,7 +45915,7 @@
         <v>57</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>903</v>
@@ -45702,10 +45929,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>1708</v>
+        <v>1722</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1709</v>
+        <v>1723</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>1</v>
@@ -45720,7 +45947,7 @@
         <v>889</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>12</v>
@@ -45735,7 +45962,7 @@
         <v>57</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>903</v>
@@ -45749,10 +45976,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1710</v>
+        <v>1724</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>1</v>
@@ -45767,7 +45994,7 @@
         <v>889</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>12</v>
@@ -45782,7 +46009,7 @@
         <v>57</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>903</v>
@@ -45796,10 +46023,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1711</v>
+        <v>1725</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -45814,7 +46041,7 @@
         <v>889</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>12</v>
@@ -45829,7 +46056,7 @@
         <v>57</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>903</v>
@@ -45843,10 +46070,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>1712</v>
+        <v>1726</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1713</v>
+        <v>1727</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>1</v>
@@ -45861,7 +46088,7 @@
         <v>889</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>12</v>
@@ -45876,7 +46103,7 @@
         <v>57</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>903</v>
@@ -45890,10 +46117,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>1714</v>
+        <v>1728</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
@@ -45908,7 +46135,7 @@
         <v>889</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>12</v>
@@ -45923,7 +46150,7 @@
         <v>57</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>903</v>
@@ -45937,10 +46164,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>1716</v>
+        <v>1730</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1717</v>
+        <v>1731</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
@@ -45955,7 +46182,7 @@
         <v>889</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>12</v>
@@ -45970,7 +46197,7 @@
         <v>57</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>903</v>
@@ -45984,10 +46211,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>1718</v>
+        <v>1732</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
@@ -46002,7 +46229,7 @@
         <v>889</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>12</v>
@@ -46017,7 +46244,7 @@
         <v>57</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>903</v>
@@ -46031,10 +46258,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>1720</v>
+        <v>1734</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
@@ -46049,7 +46276,7 @@
         <v>889</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>12</v>
@@ -46064,7 +46291,7 @@
         <v>57</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>903</v>
@@ -46164,10 +46391,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -46185,7 +46412,7 @@
         <v>59</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3</v>
@@ -46210,10 +46437,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -46231,7 +46458,7 @@
         <v>59</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3</v>
@@ -46249,10 +46476,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1727</v>
+        <v>1741</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1728</v>
+        <v>1742</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -46270,7 +46497,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
@@ -46291,7 +46518,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1729</v>
+        <v>1743</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -46309,7 +46536,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3</v>
@@ -46327,10 +46554,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1730</v>
+        <v>1744</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -46348,7 +46575,7 @@
         <v>59</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
@@ -46366,10 +46593,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1733</v>
+        <v>1747</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -46387,7 +46614,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
@@ -46405,10 +46632,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -46426,7 +46653,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
@@ -46444,10 +46671,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1737</v>
+        <v>1751</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -46465,7 +46692,7 @@
         <v>59</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
@@ -46483,10 +46710,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1738</v>
+        <v>1752</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1739</v>
+        <v>1753</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -46504,7 +46731,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
@@ -46522,10 +46749,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1741</v>
+        <v>1755</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -46543,7 +46770,7 @@
         <v>59</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3</v>
@@ -46561,10 +46788,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1742</v>
+        <v>1756</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1743</v>
+        <v>1757</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -46582,7 +46809,7 @@
         <v>59</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
@@ -46600,10 +46827,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1744</v>
+        <v>1758</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1745</v>
+        <v>1759</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -46621,7 +46848,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -46639,10 +46866,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1747</v>
+        <v>1761</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -46660,7 +46887,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -46678,10 +46905,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1748</v>
+        <v>1762</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1749</v>
+        <v>1763</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -46699,7 +46926,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3</v>
@@ -46717,10 +46944,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1750</v>
+        <v>1764</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1751</v>
+        <v>1765</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -46738,7 +46965,7 @@
         <v>59</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3</v>
@@ -46756,10 +46983,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1752</v>
+        <v>1766</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1753</v>
+        <v>1767</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -46777,7 +47004,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3</v>
@@ -46795,10 +47022,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1754</v>
+        <v>1768</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -46816,7 +47043,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
@@ -46834,10 +47061,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1756</v>
+        <v>1770</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1757</v>
+        <v>1771</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -46855,7 +47082,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
@@ -46873,10 +47100,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1758</v>
+        <v>1772</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1759</v>
+        <v>1773</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -46894,7 +47121,7 @@
         <v>59</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3</v>
@@ -46912,10 +47139,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1760</v>
+        <v>1774</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1761</v>
+        <v>1775</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -46933,7 +47160,7 @@
         <v>59</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3</v>
@@ -46951,10 +47178,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1762</v>
+        <v>1776</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1763</v>
+        <v>1777</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -46972,7 +47199,7 @@
         <v>59</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
@@ -46990,10 +47217,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -47011,7 +47238,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
@@ -47029,10 +47256,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1766</v>
+        <v>1780</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1767</v>
+        <v>1781</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -47050,7 +47277,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>3</v>
@@ -47068,10 +47295,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1768</v>
+        <v>1782</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1769</v>
+        <v>1783</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -47089,7 +47316,7 @@
         <v>59</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>3</v>
@@ -47107,10 +47334,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1770</v>
+        <v>1784</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1771</v>
+        <v>1785</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -47128,7 +47355,7 @@
         <v>59</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3</v>
@@ -47149,7 +47376,7 @@
         <v>1045</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1772</v>
+        <v>1786</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>60</v>
@@ -47164,10 +47391,10 @@
         <v>426</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1773</v>
+        <v>1787</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3</v>
@@ -47179,7 +47406,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>1774</v>
+        <v>1788</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>993</v>
@@ -47193,10 +47420,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1775</v>
+        <v>1789</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1776</v>
+        <v>1790</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -47205,7 +47432,7 @@
         <v>890</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>259</v>
@@ -47214,7 +47441,7 @@
         <v>985</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>3</v>
@@ -47226,7 +47453,7 @@
         <v>58</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>1011</v>
@@ -47240,10 +47467,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1779</v>
+        <v>1793</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1780</v>
+        <v>1794</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -47252,7 +47479,7 @@
         <v>890</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>259</v>
@@ -47261,7 +47488,7 @@
         <v>985</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>3</v>
@@ -47273,7 +47500,7 @@
         <v>58</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>1011</v>
@@ -47287,10 +47514,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1781</v>
+        <v>1795</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1782</v>
+        <v>1796</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -47299,7 +47526,7 @@
         <v>890</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>259</v>
@@ -47308,7 +47535,7 @@
         <v>985</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
@@ -47320,7 +47547,7 @@
         <v>58</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>1011</v>
@@ -47334,10 +47561,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1783</v>
+        <v>1797</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1784</v>
+        <v>1798</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -47346,7 +47573,7 @@
         <v>890</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>259</v>
@@ -47355,7 +47582,7 @@
         <v>985</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3</v>
@@ -47367,7 +47594,7 @@
         <v>58</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>1011</v>
@@ -47381,10 +47608,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1785</v>
+        <v>1799</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1786</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -47393,7 +47620,7 @@
         <v>890</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>259</v>
@@ -47402,7 +47629,7 @@
         <v>985</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3</v>
@@ -47414,7 +47641,7 @@
         <v>58</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>1011</v>
@@ -47428,10 +47655,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1787</v>
+        <v>1801</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1788</v>
+        <v>1802</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>60</v>
@@ -47440,7 +47667,7 @@
         <v>890</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>259</v>
@@ -47449,7 +47676,7 @@
         <v>985</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3</v>
@@ -47475,10 +47702,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1789</v>
+        <v>1803</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1790</v>
+        <v>1804</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -47487,7 +47714,7 @@
         <v>890</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>259</v>
@@ -47496,7 +47723,7 @@
         <v>985</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3</v>
@@ -47508,7 +47735,7 @@
         <v>58</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>1789</v>
+        <v>1803</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>1011</v>
@@ -47522,7 +47749,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1787</v>
+        <v>1801</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>930</v>
@@ -47534,16 +47761,16 @@
         <v>890</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1791</v>
+        <v>1805</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>736</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1791</v>
+        <v>1805</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
@@ -47569,10 +47796,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1792</v>
+        <v>1806</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1793</v>
+        <v>1807</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>60</v>
@@ -47590,7 +47817,7 @@
         <v>975</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
@@ -47602,7 +47829,7 @@
         <v>58</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>1794</v>
+        <v>1808</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>903</v>
@@ -47616,7 +47843,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1787</v>
+        <v>1801</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>972</v>
@@ -47637,7 +47864,7 @@
         <v>975</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
@@ -47666,7 +47893,7 @@
         <v>1099</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1795</v>
+        <v>1809</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>60</v>
@@ -47684,7 +47911,7 @@
         <v>1103</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -47696,7 +47923,7 @@
         <v>58</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>1796</v>
+        <v>1810</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>903</v>
@@ -47713,7 +47940,7 @@
         <v>887</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1797</v>
+        <v>1811</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -47731,7 +47958,7 @@
         <v>891</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3</v>
@@ -47743,7 +47970,7 @@
         <v>58</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>903</v>
@@ -47757,10 +47984,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1799</v>
+        <v>1813</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1800</v>
+        <v>1814</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -47778,7 +48005,7 @@
         <v>891</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>3</v>
@@ -47804,10 +48031,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1801</v>
+        <v>1815</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1802</v>
+        <v>1816</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -47825,7 +48052,7 @@
         <v>891</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>3</v>
@@ -47851,10 +48078,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1803</v>
+        <v>1817</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1804</v>
+        <v>1818</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -47872,7 +48099,7 @@
         <v>891</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3</v>
@@ -47884,7 +48111,7 @@
         <v>58</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>1805</v>
+        <v>1819</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>903</v>
@@ -47901,7 +48128,7 @@
         <v>893</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1806</v>
+        <v>1820</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -47919,7 +48146,7 @@
         <v>891</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3</v>
@@ -47931,7 +48158,7 @@
         <v>58</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>1807</v>
+        <v>1821</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>903</v>
@@ -47945,10 +48172,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1808</v>
+        <v>1822</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1809</v>
+        <v>1823</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>60</v>
@@ -47966,7 +48193,7 @@
         <v>794</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3</v>
@@ -47978,7 +48205,7 @@
         <v>58</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>1810</v>
+        <v>1824</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>993</v>
@@ -47992,10 +48219,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1811</v>
+        <v>1825</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1812</v>
+        <v>1826</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>60</v>
@@ -48013,7 +48240,7 @@
         <v>794</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
@@ -48025,7 +48252,7 @@
         <v>58</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>1813</v>
+        <v>1827</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>993</v>
@@ -48039,10 +48266,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1814</v>
+        <v>1828</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>60</v>
@@ -48060,7 +48287,7 @@
         <v>794</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3</v>
@@ -48072,7 +48299,7 @@
         <v>58</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>1814</v>
+        <v>1828</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>993</v>
@@ -48086,10 +48313,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1816</v>
+        <v>1830</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1817</v>
+        <v>1831</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -48107,7 +48334,7 @@
         <v>794</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>3</v>
@@ -48119,7 +48346,7 @@
         <v>58</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>1818</v>
+        <v>1832</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>903</v>
@@ -48131,15 +48358,15 @@
         <v>58</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>1819</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1820</v>
+        <v>1834</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1821</v>
+        <v>1835</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>60</v>
@@ -48157,7 +48384,7 @@
         <v>794</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3</v>
@@ -48169,7 +48396,7 @@
         <v>58</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>1818</v>
+        <v>1832</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>903</v>
@@ -48183,10 +48410,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1822</v>
+        <v>1836</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1823</v>
+        <v>1837</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -48204,7 +48431,7 @@
         <v>794</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3</v>
@@ -48216,7 +48443,7 @@
         <v>58</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>1824</v>
+        <v>1838</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>1011</v>
@@ -48230,10 +48457,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1825</v>
+        <v>1839</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1826</v>
+        <v>1840</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -48251,7 +48478,7 @@
         <v>794</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3</v>
@@ -48263,7 +48490,7 @@
         <v>58</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="M50" s="0" t="s">
         <v>1011</v>
@@ -48277,10 +48504,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1828</v>
+        <v>1842</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1829</v>
+        <v>1843</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
@@ -48298,7 +48525,7 @@
         <v>794</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>3</v>
@@ -48310,7 +48537,7 @@
         <v>58</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>1830</v>
+        <v>1844</v>
       </c>
       <c r="M51" s="0" t="s">
         <v>1011</v>
@@ -48327,7 +48554,7 @@
         <v>1311</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1831</v>
+        <v>1845</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>60</v>
@@ -48345,7 +48572,7 @@
         <v>794</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
@@ -48371,10 +48598,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1832</v>
+        <v>1846</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1833</v>
+        <v>1847</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>60</v>
@@ -48383,16 +48610,16 @@
         <v>890</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>216</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>3</v>
@@ -48404,7 +48631,7 @@
         <v>58</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>1832</v>
+        <v>1846</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>1011</v>
@@ -48418,10 +48645,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1835</v>
+        <v>1849</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1836</v>
+        <v>1850</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -48430,16 +48657,16 @@
         <v>890</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>216</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -48451,7 +48678,7 @@
         <v>58</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>1011</v>
@@ -48465,10 +48692,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1838</v>
+        <v>1852</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1839</v>
+        <v>1853</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2</v>
@@ -48477,16 +48704,16 @@
         <v>890</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>216</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>3</v>
@@ -48498,7 +48725,7 @@
         <v>58</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>1011</v>
@@ -48595,13 +48822,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1840</v>
+        <v>1854</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1841</v>
+        <v>1855</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1842</v>
+        <v>1856</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>890</v>
@@ -48616,7 +48843,7 @@
         <v>975</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>44</v>
@@ -48628,7 +48855,7 @@
         <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1794</v>
+        <v>1808</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>1011</v>
@@ -48640,18 +48867,18 @@
         <v>58</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>1844</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1845</v>
+        <v>1859</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1846</v>
+        <v>1860</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1847</v>
+        <v>1861</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>890</v>
@@ -48666,7 +48893,7 @@
         <v>975</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>44</v>
@@ -48678,7 +48905,7 @@
         <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>1848</v>
+        <v>1862</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>903</v>
@@ -48690,18 +48917,18 @@
         <v>58</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>1844</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1849</v>
+        <v>1863</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1850</v>
+        <v>1864</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1851</v>
+        <v>1865</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>890</v>
@@ -48716,7 +48943,7 @@
         <v>975</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>44</v>
@@ -48728,7 +48955,7 @@
         <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>1848</v>
+        <v>1862</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>903</v>
@@ -48740,7 +48967,7 @@
         <v>58</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>1844</v>
+        <v>1858</v>
       </c>
     </row>
   </sheetData>
@@ -48759,10 +48986,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48779,28 +49006,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1852</v>
+        <v>1866</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1853</v>
+        <v>1867</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1854</v>
+        <v>1868</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1855</v>
+        <v>1869</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1856</v>
+        <v>1870</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1857</v>
+        <v>1871</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1858</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48808,13 +49035,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1859</v>
+        <v>1873</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1860</v>
+        <v>1874</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>60</v>
@@ -48825,16 +49052,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1861</v>
+        <v>1875</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1862</v>
+        <v>1876</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1860</v>
+        <v>1874</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>60</v>
@@ -48845,16 +49072,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1863</v>
+        <v>1877</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1864</v>
+        <v>1878</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1860</v>
+        <v>1874</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>60</v>
@@ -48865,685 +49092,685 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1865</v>
+        <v>1879</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1868</v>
+        <v>1882</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1869</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1870</v>
+        <v>1884</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1871</v>
+        <v>1885</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1872</v>
+        <v>1886</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1873</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1466</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1874</v>
+        <v>1888</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1875</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1505</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1876</v>
+        <v>1890</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1878</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1879</v>
+        <v>1893</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1880</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1867</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>1882</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1883</v>
+        <v>1897</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1876</v>
+        <v>1890</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1884</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1490</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1897</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="F24" s="5" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F24" s="5" t="s">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>1922</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1905</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1924</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1925</v>
+        <v>1939</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1926</v>
+        <v>1940</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1927</v>
+        <v>1941</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1928</v>
+        <v>1942</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1930</v>
+        <v>1944</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1931</v>
+        <v>1945</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1932</v>
+        <v>1946</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1933</v>
+        <v>1947</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1934</v>
+        <v>1948</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>1935</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1936</v>
+        <v>1950</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1930</v>
+        <v>1944</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1937</v>
+        <v>1951</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>1455</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1938</v>
+        <v>1952</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1939</v>
+        <v>1953</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1940</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1941</v>
+        <v>1955</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1942</v>
+        <v>1956</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>1942</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>1929</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1944</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+      <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1945</v>
+        <v>1959</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1946</v>
+        <v>1960</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>1947</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1948</v>
+        <v>1962</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1929</v>
+        <v>1943</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1950</v>
+        <v>1964</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1876</v>
+        <v>1890</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1951</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1952</v>
+        <v>1966</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1953</v>
+        <v>1967</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1954</v>
+        <v>1968</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1955</v>
+        <v>1969</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1953</v>
+        <v>1967</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1956</v>
+        <v>1970</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1957</v>
+        <v>1971</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1958</v>
+        <v>1972</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>1959</v>
+        <v>1973</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1889</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49554,16 +49781,16 @@
         <v>1529</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1960</v>
+        <v>1974</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1953</v>
+        <v>1967</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1961</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49574,19 +49801,19 @@
         <v>1535</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1962</v>
+        <v>1976</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1953</v>
+        <v>1967</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>1961</v>
+        <v>1975</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>1963</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49597,13 +49824,13 @@
         <v>1552</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>1964</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49611,19 +49838,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1843</v>
+        <v>1857</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1876</v>
+        <v>1890</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1965</v>
+        <v>1979</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>1966</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49634,16 +49861,16 @@
         <v>1557</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1967</v>
+        <v>1981</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>1968</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49654,16 +49881,16 @@
         <v>1560</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1969</v>
+        <v>1983</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1970</v>
+        <v>1984</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>1971</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49674,16 +49901,16 @@
         <v>1584</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1972</v>
+        <v>1986</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>1973</v>
+        <v>1987</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>1974</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49694,13 +49921,13 @@
         <v>1592</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1972</v>
+        <v>1986</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1975</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49711,13 +49938,13 @@
         <v>1596</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1976</v>
+        <v>1990</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>1977</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49728,13 +49955,13 @@
         <v>1599</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1979</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49745,7 +49972,54 @@
         <v>1610</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1980</v>
+        <v>1992</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" state="visible" r:id="rId2"/>
@@ -4658,7 +4658,7 @@
     <t xml:space="preserve">Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambrazevicius, Mus Sci 2005</t>
+    <t xml:space="preserve">Rytis Ambrazevičius. The perception and transcription of the scale reconsidered: Several lithuanian cases. The World of Music, 47(2):31–53, 2005</t>
   </si>
   <si>
     <t xml:space="preserve">There were three versions for this audio sample, and I chose the one that was obtained using the same method as the second sample.</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">182;189;305;262;143</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambrazevicius, World of Mus 2005</t>
+    <t xml:space="preserve">Rytis Ambrazevičius. Modelling of scales in traditional solo singing. Music. Sci., 10(1_suppl):65–87, 2006. doi: 10.1177/1029864906010001041</t>
   </si>
   <si>
     <t xml:space="preserve">Skudutis</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">Gisu</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooke, Transverse Flute 1971</t>
+    <t xml:space="preserve">P. R. Cooke. Ludaya âĂŞ a transverse flute from eastern uganda. Yearb. Int. Folk Music Council, 3:79âĂŞ90, 1971. doi: 10.2307/767457</t>
   </si>
   <si>
     <t xml:space="preserve">Ludaya</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">Jones, Kwaiker, 1966</t>
+    <t xml:space="preserve">A. M. Jones. A kwaikèr indian xylophone. Ethnomusicol- ogy, 10(1):43–47, 1966</t>
   </si>
   <si>
     <t xml:space="preserve">Cambodia 1</t>
@@ -4751,7 +4751,25 @@
     <t xml:space="preserve">178;178;152;155;185;176;186</t>
   </si>
   <si>
-    <t xml:space="preserve">Jones, Indonesia and Africa, 1960</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. M. Jones. Indonesia and africa: The xylophone as a culture-indicator. African Music : Journal of the Inter- national Library of African Music, 2(3):36–47, 1960. doi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.21504/amj.v2i3.608</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Gamelan 25</t>
@@ -4823,7 +4841,7 @@
     <t xml:space="preserve">Bukonjo</t>
   </si>
   <si>
-    <t xml:space="preserve">Kubik, Endara, 1962</t>
+    <t xml:space="preserve">G. Kubik. The endara xylophone of bukonjo. African Music : Journal of the International Library of African Music, 3(1):43–48, 1962. doi: https://doi.org/10.21504/ amj.v3i1.736</t>
   </si>
   <si>
     <t xml:space="preserve">Endara</t>
@@ -4847,7 +4865,25 @@
     <t xml:space="preserve">Chuwabo</t>
   </si>
   <si>
-    <t xml:space="preserve">Kubik, Trough xylophone, 1963</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">G. Kubik. Discovery of a trough xylophone in northern mozambique. African Music : Journal of the Interna- tional Library of African Music, 3(2):11–14, 1963. doi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.21504/amj.v3i2.826</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">273;279;196;245;207;230;242;241;269;190;220;256;200;240;249;225</t>
@@ -4859,7 +4895,7 @@
     <t xml:space="preserve">Busoga</t>
   </si>
   <si>
-    <t xml:space="preserve">Kubik, Samusiri Babalanda, 1992</t>
+    <t xml:space="preserve">Gerhard Kubik. Embaire xylophone music of samusiri babalanda (uganda 1968). The World of Music, 34(1): 57–84, 1992</t>
   </si>
   <si>
     <t xml:space="preserve">Flute 1A</t>
@@ -4868,7 +4904,7 @@
     <t xml:space="preserve">170;148;154;195;187;201;140</t>
   </si>
   <si>
-    <t xml:space="preserve">Thrasher 1978</t>
+    <t xml:space="preserve">Alan Thrasher. The transverse flute in traditional chinese music. Asian Music, 10(1):92–114, 1978</t>
   </si>
   <si>
     <t xml:space="preserve">Flute 1B</t>
@@ -4901,7 +4937,7 @@
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Minana – Marimbas in Colombia – 1990</t>
+    <t xml:space="preserve">C. Miñana Blasco. Afinación de las marimbas en la costa pacífica colombiana: Un ejemplo de la memoria interválica africana en colombia. 1990</t>
   </si>
   <si>
     <t xml:space="preserve">210;210;130;170;170;190;120;190;150;250;110;200;100</t>
@@ -4955,7 +4991,7 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">Sundberg, 1969</t>
+    <t xml:space="preserve">J. Sundberg and P. Tjernlund. Computer measurements of the tone scale in performed music by means of frequency histograms. STL-QPS, 10(2-3):33–35, 1969</t>
   </si>
   <si>
     <t xml:space="preserve">spilåpipa</t>
@@ -4976,7 +5012,7 @@
     <t xml:space="preserve">Benin</t>
   </si>
   <si>
-    <t xml:space="preserve">Copeland, Benin – 2018</t>
+    <t xml:space="preserve">Lyndsey Copeland. Pitch and tuning in beninese brass bands. Ethnomusicology Forum, 27(2):213–240, 2018. doi: 10.1080/17411912.2018.1518151</t>
   </si>
   <si>
     <t xml:space="preserve">Trombone</t>
@@ -5642,7 +5678,7 @@
     <t xml:space="preserve">1;2;3;4;5;6;7;1;2;3;4;5;6;7;1;2</t>
   </si>
   <si>
-    <t xml:space="preserve">Garfias, Burmese modes, 1975</t>
+    <t xml:space="preserve">Robert Garfias. Preliminary thoughts on burmese modes. Asian Music, 7(1):39–49, 1975</t>
   </si>
   <si>
     <t xml:space="preserve">1;2;3;5;6,1;2;4;5;6,1;3;4;5;6,1;3;4;5;7</t>
@@ -6190,7 +6226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6215,6 +6251,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -6269,7 +6312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6308,6 +6351,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -6481,7 +6528,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>2013</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -31722,8 +31769,8 @@
   </sheetPr>
   <dimension ref="A1:AJ240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31747,28 +31794,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -31797,28 +31844,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -31849,28 +31896,28 @@
       <c r="T2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -31901,28 +31948,28 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -31953,28 +32000,28 @@
       <c r="T4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -32005,28 +32052,28 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -32057,28 +32104,28 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -32109,28 +32156,28 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -32161,28 +32208,28 @@
       <c r="T8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -32213,25 +32260,25 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="7" t="s">
         <v>1103</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -32267,28 +32314,28 @@
       <c r="T10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="7" t="s">
         <v>1151</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -32319,28 +32366,28 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="7" t="s">
         <v>1151</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -32371,25 +32418,25 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -32425,25 +32472,25 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -32479,25 +32526,25 @@
       <c r="V14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -32531,25 +32578,25 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -32581,25 +32628,25 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -32633,25 +32680,25 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -32685,25 +32732,25 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -32737,25 +32784,25 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="7" t="s">
         <v>891</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -32789,25 +32836,25 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -32840,25 +32887,25 @@
       <c r="S21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -32891,25 +32938,25 @@
       <c r="S22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -32944,25 +32991,25 @@
       <c r="U23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -32995,25 +33042,25 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -33046,25 +33093,25 @@
       <c r="S25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -33097,25 +33144,25 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -33151,25 +33198,25 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -33205,25 +33252,25 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -33259,25 +33306,25 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+      <c r="A30" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -33314,25 +33361,25 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -33367,25 +33414,25 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="C32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -33419,25 +33466,25 @@
       <c r="T32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -33471,25 +33518,25 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+      <c r="A34" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -33523,25 +33570,25 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -33574,25 +33621,25 @@
       <c r="S35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -33625,25 +33672,25 @@
       <c r="S36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="7" t="s">
         <v>981</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -33674,25 +33721,25 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -33730,25 +33777,25 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -33787,25 +33834,25 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -33842,25 +33889,25 @@
       <c r="W40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -33897,25 +33944,25 @@
       <c r="W41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -33953,25 +34000,25 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -34010,25 +34057,25 @@
       <c r="Y43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -34063,25 +34110,25 @@
       <c r="U44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="C45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -34116,25 +34163,25 @@
       <c r="U45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -34168,25 +34215,25 @@
       <c r="T46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -34228,25 +34275,25 @@
       <c r="AB47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -34285,25 +34332,25 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -34345,25 +34392,25 @@
       <c r="AB49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>1228</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -34405,25 +34452,25 @@
       <c r="AB50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>1230</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="C51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -34463,25 +34510,25 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="C52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -34523,25 +34570,25 @@
       <c r="AB52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="C53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -34583,25 +34630,25 @@
       <c r="AB53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="C54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -34643,25 +34690,25 @@
       <c r="AB54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="0" t="s">
+      <c r="C55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H55" s="7" t="s">
@@ -34704,25 +34751,25 @@
       <c r="AC55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>1240</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="C56" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -34765,25 +34812,25 @@
       <c r="AC56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="C57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H57" s="7" t="s">
@@ -34825,25 +34872,25 @@
       <c r="AB57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="C58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -34882,25 +34929,25 @@
       <c r="Y58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="C59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H59" s="7" t="s">
@@ -34943,25 +34990,25 @@
       <c r="AC59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>1248</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="0" t="s">
+      <c r="C60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -35004,25 +35051,25 @@
       <c r="AC60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>1250</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="C61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -35062,25 +35109,25 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>1252</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="C62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -35120,25 +35167,25 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>1254</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="0" t="s">
+      <c r="C63" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -35180,25 +35227,25 @@
       <c r="AB63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="0" t="s">
+      <c r="C64" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H64" s="7" t="s">
@@ -35246,25 +35293,25 @@
       <c r="AH64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>1259</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="0" t="s">
+      <c r="C65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H65" s="7" t="s">
@@ -35309,25 +35356,25 @@
       <c r="AJ65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>1261</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="C66" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H66" s="7" t="s">
@@ -35370,25 +35417,25 @@
       <c r="AC66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>1263</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="0" t="s">
+      <c r="C67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H67" s="7" t="s">
@@ -35432,25 +35479,25 @@
       <c r="AD67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>1265</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="0" t="s">
+      <c r="C68" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="H68" s="7" t="s">
@@ -35493,28 +35540,28 @@
       <c r="AC68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>1267</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="0" t="s">
+      <c r="C69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="7" t="s">
         <v>1270</v>
       </c>
       <c r="I69" s="0" t="n">
@@ -35548,28 +35595,28 @@
       <c r="AD69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="0" t="s">
+      <c r="C70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="7" t="s">
         <v>1270</v>
       </c>
       <c r="I70" s="0" t="n">
@@ -35600,28 +35647,28 @@
       <c r="T70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="0" t="s">
+      <c r="C71" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="7" t="s">
         <v>1276</v>
       </c>
       <c r="I71" s="0" t="n">
@@ -35656,28 +35703,28 @@
       <c r="X71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="C72" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="7" t="s">
         <v>1276</v>
       </c>
       <c r="I72" s="0" t="n">
@@ -35713,28 +35760,28 @@
       <c r="Y72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>1279</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="C73" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>1281</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="7" t="s">
         <v>1283</v>
       </c>
       <c r="I73" s="0" t="n">
@@ -35778,28 +35825,28 @@
       <c r="AG73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="n">
+      <c r="A74" s="11" t="n">
         <v>77</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="C74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="7" t="s">
         <v>1285</v>
       </c>
       <c r="I74" s="0" t="n">
@@ -35843,28 +35890,28 @@
       <c r="AG74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="11" t="s">
         <v>1286</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="C75" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="7" t="s">
         <v>1290</v>
       </c>
       <c r="I75" s="0" t="n">
@@ -35905,28 +35952,28 @@
       <c r="AD75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="C76" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="7" t="s">
         <v>1290</v>
       </c>
       <c r="I76" s="0" t="n">
@@ -35967,28 +36014,28 @@
       <c r="AD76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="C77" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="7" t="s">
         <v>1290</v>
       </c>
       <c r="I77" s="0" t="n">
@@ -36029,28 +36076,28 @@
       <c r="AD77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="n">
+      <c r="A78" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="C78" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="7" t="s">
         <v>1296</v>
       </c>
       <c r="I78" s="0" t="n">
@@ -36088,28 +36135,28 @@
       <c r="AA78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="n">
+      <c r="A79" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="0" t="s">
+      <c r="C79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="7" t="s">
         <v>1296</v>
       </c>
       <c r="I79" s="0" t="n">
@@ -36147,25 +36194,25 @@
       <c r="AA79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="C80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="7" t="s">
         <v>735</v>
       </c>
       <c r="H80" s="7" t="s">
@@ -36197,25 +36244,25 @@
       <c r="R80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="0" t="s">
+      <c r="C81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="7" t="s">
         <v>735</v>
       </c>
       <c r="H81" s="7" t="s">
@@ -36247,25 +36294,25 @@
       <c r="R81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="0" t="s">
+      <c r="C82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="7" t="s">
         <v>735</v>
       </c>
       <c r="H82" s="7" t="s">
@@ -36297,25 +36344,25 @@
       <c r="R82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="0" t="s">
+      <c r="C83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="7" t="s">
         <v>735</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -36347,25 +36394,25 @@
       <c r="R83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="0" t="s">
+      <c r="C84" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="7" t="s">
         <v>735</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -36397,25 +36444,25 @@
       <c r="R84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
+      <c r="A85" s="11" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="0" t="s">
+      <c r="C85" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -36458,25 +36505,25 @@
       <c r="AC85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="n">
+      <c r="A86" s="11" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="0" t="s">
+      <c r="C86" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -36519,25 +36566,25 @@
       <c r="AC86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
+      <c r="A87" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="C87" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -36576,25 +36623,25 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="n">
+      <c r="A88" s="11" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="0" t="s">
+      <c r="C88" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -36633,25 +36680,25 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="n">
+      <c r="A89" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="0" t="s">
+      <c r="C89" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -36683,25 +36730,25 @@
       <c r="R89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="n">
+      <c r="A90" s="11" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="C90" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -36734,25 +36781,25 @@
       <c r="S90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="n">
+      <c r="A91" s="11" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="0" t="s">
+      <c r="C91" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H91" s="7" t="s">
@@ -36787,25 +36834,25 @@
       <c r="U91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="n">
+      <c r="A92" s="11" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="0" t="s">
+      <c r="C92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -36839,25 +36886,25 @@
       <c r="T92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="n">
+      <c r="A93" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="0" t="s">
+      <c r="C93" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="7" t="s">
         <v>794</v>
       </c>
       <c r="H93" s="7" t="s">
@@ -36892,28 +36939,28 @@
       <c r="U93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="0" t="s">
+      <c r="C94" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="7" t="s">
         <v>1321</v>
       </c>
       <c r="I94" s="0" t="n">
@@ -36953,28 +37000,28 @@
       <c r="AC94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="C95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="7" t="s">
         <v>1321</v>
       </c>
       <c r="I95" s="0" t="n">
@@ -37014,28 +37061,28 @@
       <c r="AC95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="C96" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="H96" s="7" t="s">
         <v>1321</v>
       </c>
       <c r="I96" s="0" t="n">
@@ -37075,28 +37122,28 @@
       <c r="AC96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="0" t="s">
+      <c r="C97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="7" t="s">
         <v>1321</v>
       </c>
       <c r="I97" s="0" t="n">
@@ -37135,29 +37182,29 @@
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+    <row r="98" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="0" t="s">
+      <c r="C98" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="H98" s="0" t="s">
+      <c r="H98" s="7" t="s">
         <v>1321</v>
       </c>
       <c r="I98" s="0" t="n">
@@ -37199,28 +37246,28 @@
       <c r="AC98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="11" t="s">
         <v>1336</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="0" t="s">
+      <c r="C99" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="7" t="s">
         <v>1339</v>
       </c>
       <c r="I99" s="0" t="n">
@@ -37252,28 +37299,28 @@
       <c r="U99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="11" t="s">
         <v>1341</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="0" t="s">
+      <c r="C100" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="H100" s="7" t="s">
         <v>1339</v>
       </c>
       <c r="I100" s="0" t="n">
@@ -37302,28 +37349,28 @@
       <c r="R100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="7" t="s">
         <v>1344</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="0" t="s">
+      <c r="C101" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="H101" s="7" t="s">
         <v>1339</v>
       </c>
       <c r="I101" s="0" t="n">
@@ -37352,28 +37399,28 @@
       <c r="R101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="11" t="s">
         <v>1345</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" s="0" t="s">
+      <c r="C102" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" s="7" t="s">
         <v>1339</v>
       </c>
       <c r="I102" s="0" t="n">
@@ -37402,25 +37449,25 @@
       <c r="R102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="11" t="s">
         <v>1347</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="0" t="s">
+      <c r="C103" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H103" s="7" t="s">
@@ -37449,25 +37496,25 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="11" t="s">
         <v>1350</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" s="0" t="s">
+      <c r="C104" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H104" s="7" t="s">
@@ -37496,25 +37543,25 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="0" t="s">
+      <c r="C105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H105" s="7" t="s">
@@ -37543,25 +37590,25 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="11" t="s">
         <v>1354</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="0" t="s">
+      <c r="C106" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H106" s="7" t="s">
@@ -37590,25 +37637,25 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="11" t="s">
         <v>1356</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" s="0" t="s">
+      <c r="C107" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H107" s="7" t="s">
@@ -37637,25 +37684,25 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="11" t="s">
         <v>1358</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108" s="0" t="s">
+      <c r="C108" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H108" s="7" t="s">
@@ -37684,25 +37731,25 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="11" t="s">
         <v>1360</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D109" s="0" t="s">
+      <c r="C109" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H109" s="7" t="s">
@@ -37731,25 +37778,25 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="11" t="s">
         <v>1362</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="0" t="s">
+      <c r="C110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H110" s="7" t="s">
@@ -37778,25 +37825,25 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="11" t="s">
         <v>1364</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="7" t="s">
         <v>1365</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="0" t="s">
+      <c r="C111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H111" s="7" t="s">
@@ -37825,25 +37872,25 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="11" t="s">
         <v>1366</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="0" t="s">
+      <c r="C112" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H112" s="7" t="s">
@@ -37872,25 +37919,25 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" s="0" t="s">
+      <c r="C113" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H113" s="7" t="s">
@@ -37919,25 +37966,25 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114" s="0" t="s">
+      <c r="C114" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H114" s="7" t="s">
@@ -37966,25 +38013,25 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="11" t="s">
         <v>1372</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" s="0" t="s">
+      <c r="C115" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H115" s="7" t="s">
@@ -38013,25 +38060,25 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="11" t="s">
         <v>1374</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="0" t="s">
+      <c r="C116" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H116" s="7" t="s">
@@ -38060,25 +38107,25 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="11" t="s">
         <v>1376</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" s="0" t="s">
+      <c r="C117" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H117" s="7" t="s">
@@ -38107,25 +38154,25 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" s="0" t="s">
+      <c r="C118" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H118" s="7" t="s">
@@ -38154,25 +38201,25 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="11" t="s">
         <v>1380</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="0" t="s">
+      <c r="C119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H119" s="7" t="s">
@@ -38201,25 +38248,25 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="0" t="s">
+      <c r="C120" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G120" s="0" t="s">
+      <c r="G120" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H120" s="7" t="s">
@@ -38248,25 +38295,25 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="11" t="s">
         <v>1384</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="0" t="s">
+      <c r="C121" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H121" s="7" t="s">
@@ -38295,25 +38342,25 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="11" t="s">
         <v>1386</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122" s="0" t="s">
+      <c r="C122" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G122" s="0" t="s">
+      <c r="G122" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H122" s="7" t="s">
@@ -38342,25 +38389,25 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="11" t="s">
         <v>1388</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="C123" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="G123" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H123" s="7" t="s">
@@ -38389,25 +38436,25 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="11" t="s">
         <v>1390</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="0" t="s">
+      <c r="C124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G124" s="0" t="s">
+      <c r="G124" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H124" s="7" t="s">
@@ -38436,25 +38483,25 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="11" t="s">
         <v>1392</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="0" t="s">
+      <c r="C125" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G125" s="0" t="s">
+      <c r="G125" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H125" s="7" t="s">
@@ -38483,25 +38530,25 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="11" t="s">
         <v>1394</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D126" s="0" t="s">
+      <c r="C126" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G126" s="0" t="s">
+      <c r="G126" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H126" s="7" t="s">
@@ -38530,25 +38577,25 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="11" t="s">
         <v>1396</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="0" t="s">
+      <c r="C127" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G127" s="0" t="s">
+      <c r="G127" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H127" s="7" t="s">
@@ -38577,25 +38624,25 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="11" t="s">
         <v>1398</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128" s="0" t="s">
+      <c r="C128" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G128" s="0" t="s">
+      <c r="G128" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H128" s="7" t="s">
@@ -38624,25 +38671,25 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="0" t="s">
+      <c r="C129" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G129" s="0" t="s">
+      <c r="G129" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H129" s="7" t="s">
@@ -38671,25 +38718,25 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="0" t="s">
+      <c r="C130" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>1338</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G130" s="0" t="s">
+      <c r="G130" s="7" t="s">
         <v>1338</v>
       </c>
       <c r="H130" s="7" t="s">
@@ -38718,25 +38765,25 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="n">
+      <c r="A131" s="11" t="n">
         <v>125</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" s="0" t="s">
+      <c r="C131" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G131" s="0" t="s">
+      <c r="G131" s="7" t="s">
         <v>947</v>
       </c>
       <c r="H131" s="7" t="s">
@@ -38768,25 +38815,25 @@
       <c r="R131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="n">
+      <c r="A132" s="11" t="n">
         <v>126</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="C132" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G132" s="0" t="s">
+      <c r="G132" s="7" t="s">
         <v>947</v>
       </c>
       <c r="H132" s="7" t="s">
@@ -38818,25 +38865,25 @@
       <c r="R132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="n">
+      <c r="A133" s="11" t="n">
         <v>127</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D133" s="0" t="s">
+      <c r="C133" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G133" s="0" t="s">
+      <c r="G133" s="7" t="s">
         <v>1409</v>
       </c>
       <c r="H133" s="7" t="s">
@@ -38879,25 +38926,25 @@
       <c r="AC133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10" t="n">
+      <c r="A134" s="11" t="n">
         <v>128</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="C134" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G134" s="0" t="s">
+      <c r="G134" s="7" t="s">
         <v>1414</v>
       </c>
       <c r="H134" s="7" t="s">
@@ -38929,25 +38976,25 @@
       <c r="R134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10" t="n">
+      <c r="A135" s="11" t="n">
         <v>129</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="0" t="s">
+      <c r="C135" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G135" s="0" t="s">
+      <c r="G135" s="7" t="s">
         <v>1414</v>
       </c>
       <c r="H135" s="7" t="s">
@@ -38979,25 +39026,25 @@
       <c r="R135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="n">
+      <c r="A136" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="0" t="s">
+      <c r="C136" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F136" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G136" s="0" t="s">
+      <c r="G136" s="7" t="s">
         <v>1414</v>
       </c>
       <c r="H136" s="7" t="s">
@@ -39029,25 +39076,25 @@
       <c r="R136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10" t="n">
+      <c r="A137" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="0" t="s">
+      <c r="C137" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F137" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G137" s="0" t="s">
+      <c r="G137" s="7" t="s">
         <v>1414</v>
       </c>
       <c r="H137" s="7" t="s">
@@ -39084,25 +39131,25 @@
       <c r="W137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10" t="n">
+      <c r="A138" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="C138" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138" s="0" t="s">
+      <c r="C138" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G138" s="0" t="s">
+      <c r="G138" s="7" t="s">
         <v>1414</v>
       </c>
       <c r="H138" s="7" t="s">
@@ -39140,25 +39187,25 @@
       <c r="X138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10" t="n">
+      <c r="A139" s="11" t="n">
         <v>133</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="0" t="s">
+      <c r="C139" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G139" s="0" t="s">
+      <c r="G139" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="H139" s="7" t="s">
@@ -39191,25 +39238,25 @@
       <c r="S139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10" t="n">
+      <c r="A140" s="11" t="n">
         <v>134</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D140" s="0" t="s">
+      <c r="C140" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G140" s="0" t="s">
+      <c r="G140" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="H140" s="7" t="s">
@@ -39242,25 +39289,25 @@
       <c r="S140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="n">
+      <c r="A141" s="11" t="n">
         <v>135</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="0" t="s">
+      <c r="C141" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G141" s="0" t="s">
+      <c r="G141" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="H141" s="7" t="s">
@@ -39293,25 +39340,25 @@
       <c r="S141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="n">
+      <c r="A142" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D142" s="0" t="s">
+      <c r="C142" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G142" s="0" t="s">
+      <c r="G142" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="H142" s="7" t="s">
@@ -39344,25 +39391,25 @@
       <c r="S142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="n">
+      <c r="A143" s="11" t="n">
         <v>137</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D143" s="0" t="s">
+      <c r="C143" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G143" s="0" t="s">
+      <c r="G143" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="H143" s="7" t="s">
@@ -39395,25 +39442,25 @@
       <c r="S143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
+      <c r="A144" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="7" t="s">
         <v>1428</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144" s="0" t="s">
+      <c r="C144" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G144" s="0" t="s">
+      <c r="G144" s="7" t="s">
         <v>947</v>
       </c>
       <c r="H144" s="7" t="s">
@@ -39447,25 +39494,25 @@
       <c r="T144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
+      <c r="A145" s="11" t="n">
         <v>139</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="C145" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" s="0" t="s">
+      <c r="C145" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F145" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G145" s="0" t="s">
+      <c r="G145" s="7" t="s">
         <v>947</v>
       </c>
       <c r="H145" s="7" t="s">
@@ -39499,28 +39546,28 @@
       <c r="T145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
+      <c r="A146" s="11" t="n">
         <v>140</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D146" s="0" t="s">
+      <c r="C146" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F146" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G146" s="0" t="s">
+      <c r="G146" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="H146" s="0" t="s">
+      <c r="H146" s="7" t="s">
         <v>1433</v>
       </c>
       <c r="I146" s="0" t="n">
@@ -39551,28 +39598,28 @@
       <c r="R146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
+      <c r="A147" s="11" t="n">
         <v>141</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="0" t="s">
+      <c r="C147" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="F147" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G147" s="0" t="s">
+      <c r="G147" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="H147" s="0" t="s">
+      <c r="H147" s="7" t="s">
         <v>1433</v>
       </c>
       <c r="I147" s="0" t="n">
@@ -39603,28 +39650,28 @@
       <c r="R147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="n">
+      <c r="A148" s="11" t="n">
         <v>142</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148" s="0" t="s">
+      <c r="C148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="F148" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G148" s="0" t="s">
+      <c r="G148" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="H148" s="0" t="s">
+      <c r="H148" s="7" t="s">
         <v>1433</v>
       </c>
       <c r="I148" s="0" t="n">
@@ -39655,28 +39702,28 @@
       <c r="R148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="n">
+      <c r="A149" s="11" t="n">
         <v>143</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D149" s="0" t="s">
+      <c r="C149" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="F149" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G149" s="0" t="s">
+      <c r="G149" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="H149" s="0" t="s">
+      <c r="H149" s="7" t="s">
         <v>1433</v>
       </c>
       <c r="I149" s="0" t="n">
@@ -39713,28 +39760,28 @@
       <c r="X149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="7" t="s">
         <v>1440</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D150" s="0" t="s">
+      <c r="C150" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F150" s="0" t="s">
+      <c r="F150" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G150" s="0" t="s">
+      <c r="G150" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H150" s="0" t="s">
+      <c r="H150" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I150" s="0" t="n">
@@ -39760,28 +39807,28 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="11" t="s">
         <v>1443</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="C151" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" s="0" t="s">
+      <c r="C151" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G151" s="0" t="s">
+      <c r="G151" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H151" s="0" t="s">
+      <c r="H151" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I151" s="0" t="n">
@@ -39807,28 +39854,28 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="C152" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="0" t="s">
+      <c r="C152" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E152" s="0" t="s">
+      <c r="E152" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F152" s="0" t="s">
+      <c r="F152" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G152" s="0" t="s">
+      <c r="G152" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H152" s="0" t="s">
+      <c r="H152" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I152" s="0" t="n">
@@ -39854,28 +39901,28 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="11" t="s">
         <v>1448</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="7" t="s">
         <v>1449</v>
       </c>
-      <c r="C153" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D153" s="0" t="s">
+      <c r="C153" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="F153" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G153" s="0" t="s">
+      <c r="G153" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H153" s="0" t="s">
+      <c r="H153" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I153" s="0" t="n">
@@ -39901,28 +39948,28 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="11" t="s">
         <v>1450</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D154" s="0" t="s">
+      <c r="C154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G154" s="0" t="s">
+      <c r="G154" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H154" s="0" t="s">
+      <c r="H154" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I154" s="0" t="n">
@@ -39948,28 +39995,28 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="C155" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="0" t="s">
+      <c r="C155" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="E155" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F155" s="0" t="s">
+      <c r="F155" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G155" s="0" t="s">
+      <c r="G155" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H155" s="0" t="s">
+      <c r="H155" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I155" s="0" t="n">
@@ -39995,28 +40042,28 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>1454</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D156" s="0" t="s">
+      <c r="C156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G156" s="0" t="s">
+      <c r="G156" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="H156" s="0" t="s">
+      <c r="H156" s="7" t="s">
         <v>1441</v>
       </c>
       <c r="I156" s="0" t="n">
@@ -40042,28 +40089,28 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157" s="0" t="s">
+      <c r="C157" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="F157" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G157" s="0" t="s">
+      <c r="G157" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="H157" s="0" t="s">
+      <c r="H157" s="7" t="s">
         <v>1458</v>
       </c>
       <c r="I157" s="0" t="n">
@@ -40106,28 +40153,28 @@
       <c r="AF157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="C158" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" s="0" t="s">
+      <c r="C158" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G158" s="0" t="s">
+      <c r="G158" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="H158" s="0" t="s">
+      <c r="H158" s="7" t="s">
         <v>1458</v>
       </c>
       <c r="I158" s="0" t="n">
@@ -40158,28 +40205,28 @@
       <c r="T158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="F159" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G159" s="0" t="s">
+      <c r="G159" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="H159" s="0" t="s">
+      <c r="H159" s="7" t="s">
         <v>1458</v>
       </c>
       <c r="I159" s="0" t="n">
@@ -40208,28 +40255,28 @@
       <c r="R159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="11" t="s">
         <v>1464</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G160" s="0" t="s">
+      <c r="G160" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="H160" s="0" t="s">
+      <c r="H160" s="7" t="s">
         <v>1468</v>
       </c>
       <c r="I160" s="0" t="n">
@@ -40260,28 +40307,28 @@
       <c r="R160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="11" t="s">
         <v>1470</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G161" s="0" t="s">
+      <c r="G161" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="H161" s="0" t="s">
+      <c r="H161" s="7" t="s">
         <v>1468</v>
       </c>
       <c r="I161" s="0" t="n">
@@ -40307,28 +40354,28 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="11" t="s">
         <v>1473</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="7" t="s">
         <v>1474</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G162" s="0" t="s">
+      <c r="G162" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="H162" s="0" t="s">
+      <c r="H162" s="7" t="s">
         <v>1468</v>
       </c>
       <c r="I162" s="0" t="n">
@@ -40354,28 +40401,28 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="11" t="s">
         <v>1476</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G163" s="0" t="s">
+      <c r="G163" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="H163" s="7" t="s">
         <v>1468</v>
       </c>
       <c r="I163" s="0" t="n">
@@ -40401,28 +40448,28 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="C164" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G164" s="0" t="s">
+      <c r="G164" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I164" s="3" t="n">
@@ -40454,28 +40501,28 @@
       <c r="U164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="C165" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D165" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G165" s="0" t="s">
+      <c r="G165" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I165" s="3" t="n">
@@ -40507,28 +40554,28 @@
       <c r="U165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="C166" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C166" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G166" s="0" t="s">
+      <c r="G166" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I166" s="3" t="n">
@@ -40554,28 +40601,28 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="C167" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="C167" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G167" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I167" s="3" t="n">
@@ -40601,28 +40648,28 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="11" t="s">
         <v>1483</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="C168" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="C168" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G168" s="3" t="s">
+      <c r="G168" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I168" s="3" t="n">
@@ -40648,28 +40695,28 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C169" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G169" s="0" t="s">
+      <c r="G169" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I169" s="3" t="n">
@@ -40695,28 +40742,28 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="C170" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G170" s="0" t="s">
+      <c r="G170" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I170" s="3" t="n">
@@ -40742,28 +40789,28 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="C171" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G171" s="0" t="s">
+      <c r="G171" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I171" s="3" t="n">
@@ -40789,28 +40836,28 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="C172" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="C172" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G172" s="0" t="s">
+      <c r="G172" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I172" s="3" t="n">
@@ -40836,28 +40883,28 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="C173" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D173" s="3" t="s">
+      <c r="C173" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G173" s="0" t="s">
+      <c r="G173" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I173" s="3" t="n">
@@ -40883,28 +40930,28 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D174" s="3" t="s">
+      <c r="C174" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G174" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I174" s="3" t="n">
@@ -40930,28 +40977,28 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="7" t="s">
         <v>1494</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D175" s="3" t="s">
+      <c r="C175" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I175" s="3" t="n">
@@ -40977,28 +41024,28 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="C176" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I176" s="3" t="n">
@@ -41024,28 +41071,28 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="11" t="s">
         <v>1406</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D177" s="3" t="s">
+      <c r="C177" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G177" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I177" s="3" t="n">
@@ -41071,28 +41118,28 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="C178" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D178" s="3" t="s">
+      <c r="C178" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D178" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G178" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I178" s="3" t="n">
@@ -41118,28 +41165,28 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="C179" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D179" s="3" t="s">
+      <c r="C179" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G179" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="H179" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I179" s="3" t="n">
@@ -41165,28 +41212,28 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D180" s="3" t="s">
+      <c r="C180" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="H180" s="3" t="s">
+      <c r="H180" s="7" t="s">
         <v>1503</v>
       </c>
       <c r="I180" s="3" t="n">
@@ -41215,28 +41262,28 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="C181" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D181" s="3" t="s">
+      <c r="C181" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F181" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G181" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="H181" s="7" t="s">
         <v>1503</v>
       </c>
       <c r="I181" s="3" t="n">
@@ -41265,28 +41312,28 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="11" t="s">
         <v>1506</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="C182" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D182" s="3" t="s">
+      <c r="C182" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F182" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G182" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="H182" s="7" t="s">
         <v>1503</v>
       </c>
       <c r="I182" s="3" t="n">
@@ -41315,28 +41362,28 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D183" s="3" t="s">
+      <c r="C183" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" s="7" t="s">
         <v>1503</v>
       </c>
       <c r="I183" s="3" t="n">
@@ -41365,28 +41412,28 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="11" t="s">
         <v>1507</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="C184" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D184" s="3" t="s">
+      <c r="C184" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="F184" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="H184" s="7" t="s">
         <v>1509</v>
       </c>
       <c r="I184" s="3" t="n">
@@ -41412,28 +41459,28 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="11" t="s">
         <v>1510</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="C185" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D185" s="3" t="s">
+      <c r="C185" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G185" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="H185" s="3" t="s">
+      <c r="H185" s="7" t="s">
         <v>1509</v>
       </c>
       <c r="I185" s="3" t="n">
@@ -41459,28 +41506,28 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="11" t="s">
         <v>1512</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="C186" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="C186" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G186" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="H186" s="7" t="s">
         <v>1509</v>
       </c>
       <c r="I186" s="3" t="n">
@@ -41506,28 +41553,28 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="11" t="s">
         <v>1514</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="7" t="s">
         <v>1515</v>
       </c>
-      <c r="C187" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D187" s="0" t="s">
+      <c r="C187" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G187" s="0" t="s">
+      <c r="G187" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H187" s="0" t="s">
+      <c r="H187" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I187" s="0" t="n">
@@ -41553,28 +41600,28 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="7" t="s">
         <v>1520</v>
       </c>
-      <c r="C188" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="C188" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="F188" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G188" s="0" t="s">
+      <c r="G188" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H188" s="0" t="s">
+      <c r="H188" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I188" s="0" t="n">
@@ -41601,28 +41648,28 @@
       <c r="R188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="C189" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="C189" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G189" s="0" t="s">
+      <c r="G189" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H189" s="0" t="s">
+      <c r="H189" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I189" s="0" t="n">
@@ -41649,28 +41696,28 @@
       <c r="R189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="11" t="s">
         <v>1523</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="7" t="s">
         <v>1524</v>
       </c>
-      <c r="C190" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="C190" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G190" s="0" t="s">
+      <c r="G190" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H190" s="0" t="s">
+      <c r="H190" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I190" s="0" t="n">
@@ -41697,28 +41744,28 @@
       <c r="R190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="11" t="s">
         <v>1525</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="C191" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G191" s="0" t="s">
+      <c r="G191" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H191" s="0" t="s">
+      <c r="H191" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I191" s="0" t="n">
@@ -41744,28 +41791,28 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="11" t="s">
         <v>1527</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="C192" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192" s="3" t="s">
+      <c r="C192" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G192" s="0" t="s">
+      <c r="G192" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H192" s="0" t="s">
+      <c r="H192" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I192" s="0" t="n">
@@ -41791,28 +41838,28 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="11" t="s">
         <v>1529</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="7" t="s">
         <v>1530</v>
       </c>
-      <c r="C193" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="C193" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G193" s="0" t="s">
+      <c r="G193" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H193" s="0" t="s">
+      <c r="H193" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I193" s="0" t="n">
@@ -41838,28 +41885,28 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="11" t="s">
         <v>1531</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="7" t="s">
         <v>1532</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D194" s="3" t="s">
+      <c r="C194" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G194" s="0" t="s">
+      <c r="G194" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H194" s="0" t="s">
+      <c r="H194" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I194" s="0" t="n">
@@ -41885,28 +41932,28 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="11" t="s">
         <v>1533</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="C195" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="C195" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G195" s="0" t="s">
+      <c r="G195" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H195" s="0" t="s">
+      <c r="H195" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I195" s="0" t="n">
@@ -41932,28 +41979,28 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="11" t="s">
         <v>1535</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="C196" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G196" s="0" t="s">
+      <c r="G196" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H196" s="0" t="s">
+      <c r="H196" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I196" s="0" t="n">
@@ -41979,28 +42026,28 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="11" t="s">
         <v>1537</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="C197" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="C197" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G197" s="0" t="s">
+      <c r="G197" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="H197" s="0" t="s">
+      <c r="H197" s="7" t="s">
         <v>1518</v>
       </c>
       <c r="I197" s="0" t="n">
@@ -42026,28 +42073,28 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="7" t="s">
         <v>1540</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G198" s="0" t="s">
+      <c r="G198" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H198" s="5" t="s">
+      <c r="H198" s="7" t="s">
         <v>1542</v>
       </c>
       <c r="I198" s="0" t="n">
@@ -42076,28 +42123,28 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="7" t="s">
         <v>1545</v>
       </c>
-      <c r="C199" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" s="0" t="s">
+      <c r="C199" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G199" s="0" t="s">
+      <c r="G199" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="H199" s="7" t="s">
         <v>1542</v>
       </c>
       <c r="I199" s="0" t="n">
@@ -42123,28 +42170,28 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="C200" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D200" s="0" t="s">
+      <c r="C200" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F200" s="0" t="s">
+      <c r="F200" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G200" s="0" t="s">
+      <c r="G200" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H200" s="5" t="s">
+      <c r="H200" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I200" s="0" t="n">
@@ -42170,28 +42217,28 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="7" t="s">
         <v>1550</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="7" t="s">
         <v>1551</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D201" s="0" t="s">
+      <c r="C201" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F201" s="0" t="s">
+      <c r="F201" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G201" s="0" t="s">
+      <c r="G201" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H201" s="5" t="s">
+      <c r="H201" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I201" s="0" t="n">
@@ -42217,28 +42264,28 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="7" t="s">
         <v>1553</v>
       </c>
-      <c r="C202" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D202" s="0" t="s">
+      <c r="C202" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G202" s="0" t="s">
+      <c r="G202" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H202" s="5" t="s">
+      <c r="H202" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I202" s="0" t="n">
@@ -42264,28 +42311,28 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="7" t="s">
         <v>1554</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="7" t="s">
         <v>1555</v>
       </c>
-      <c r="C203" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D203" s="0" t="s">
+      <c r="C203" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F203" s="0" t="s">
+      <c r="F203" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G203" s="0" t="s">
+      <c r="G203" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H203" s="5" t="s">
+      <c r="H203" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I203" s="0" t="n">
@@ -42311,28 +42358,28 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="7" t="s">
         <v>1556</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="7" t="s">
         <v>1557</v>
       </c>
-      <c r="C204" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D204" s="0" t="s">
+      <c r="C204" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F204" s="0" t="s">
+      <c r="F204" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G204" s="0" t="s">
+      <c r="G204" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H204" s="5" t="s">
+      <c r="H204" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I204" s="0" t="n">
@@ -42358,28 +42405,28 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="7" t="s">
         <v>1558</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="7" t="s">
         <v>1559</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G205" s="0" t="s">
+      <c r="G205" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H205" s="5" t="s">
+      <c r="H205" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I205" s="0" t="n">
@@ -42405,28 +42452,28 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="C206" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" s="0" t="s">
+      <c r="C206" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F206" s="0" t="s">
+      <c r="F206" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G206" s="0" t="s">
+      <c r="G206" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="H206" s="5" t="s">
+      <c r="H206" s="7" t="s">
         <v>1548</v>
       </c>
       <c r="I206" s="0" t="n">
@@ -42452,28 +42499,28 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D207" s="0" t="s">
+      <c r="C207" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D207" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F207" s="0" t="s">
+      <c r="F207" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G207" s="0" t="s">
+      <c r="G207" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="H207" s="7" t="s">
         <v>1565</v>
       </c>
       <c r="I207" s="0" t="n">
@@ -42499,28 +42546,28 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D208" s="0" t="s">
+      <c r="C208" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F208" s="0" t="s">
+      <c r="F208" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G208" s="0" t="s">
+      <c r="G208" s="7" t="s">
         <v>1569</v>
       </c>
-      <c r="H208" s="5" t="s">
+      <c r="H208" s="7" t="s">
         <v>1570</v>
       </c>
       <c r="I208" s="0" t="n">
@@ -42546,28 +42593,28 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="7" t="s">
         <v>1571</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="7" t="s">
         <v>1572</v>
       </c>
-      <c r="C209" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D209" s="0" t="s">
+      <c r="C209" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F209" s="0" t="s">
+      <c r="F209" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G209" s="0" t="s">
+      <c r="G209" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="H209" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I209" s="0" t="n">
@@ -42593,28 +42640,28 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="7" t="s">
         <v>1574</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="7" t="s">
         <v>1575</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D210" s="0" t="s">
+      <c r="C210" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="F210" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G210" s="0" t="s">
+      <c r="G210" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H210" s="5" t="s">
+      <c r="H210" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I210" s="0" t="n">
@@ -42640,28 +42687,28 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="7" t="s">
         <v>1576</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D211" s="0" t="s">
+      <c r="C211" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D211" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F211" s="0" t="s">
+      <c r="F211" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G211" s="0" t="s">
+      <c r="G211" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="H211" s="5" t="s">
+      <c r="H211" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I211" s="0" t="n">
@@ -42687,28 +42734,28 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="C212" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D212" s="0" t="s">
+      <c r="C212" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F212" s="0" t="s">
+      <c r="F212" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G212" s="0" t="s">
+      <c r="G212" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="H212" s="5" t="s">
+      <c r="H212" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I212" s="0" t="n">
@@ -42737,28 +42784,28 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="7" t="s">
         <v>1583</v>
       </c>
-      <c r="C213" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D213" s="0" t="s">
+      <c r="C213" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="F213" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G213" s="0" t="s">
+      <c r="G213" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="H213" s="5" t="s">
+      <c r="H213" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I213" s="0" t="n">
@@ -42787,28 +42834,28 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="C214" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D214" s="0" t="s">
+      <c r="C214" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="F214" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G214" s="0" t="s">
+      <c r="G214" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="H214" s="5" t="s">
+      <c r="H214" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I214" s="0" t="n">
@@ -42834,28 +42881,28 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="7" t="s">
         <v>1585</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="7" t="s">
         <v>1586</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D215" s="0" t="s">
+      <c r="C215" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D215" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="F215" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G215" s="0" t="s">
+      <c r="G215" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H215" s="5" t="s">
+      <c r="H215" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I215" s="0" t="n">
@@ -42881,28 +42928,28 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="7" t="s">
         <v>1587</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D216" s="0" t="s">
+      <c r="C216" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G216" s="0" t="s">
+      <c r="G216" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="H216" s="5" t="s">
+      <c r="H216" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I216" s="0" t="n">
@@ -42928,28 +42975,28 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="7" t="s">
         <v>1591</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D217" s="0" t="s">
+      <c r="C217" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="F217" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G217" s="0" t="s">
+      <c r="G217" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="H217" s="5" t="s">
+      <c r="H217" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I217" s="0" t="n">
@@ -42978,28 +43025,28 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D218" s="0" t="s">
+      <c r="C218" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F218" s="0" t="s">
+      <c r="F218" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G218" s="0" t="s">
+      <c r="G218" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H218" s="5" t="s">
+      <c r="H218" s="7" t="s">
         <v>1573</v>
       </c>
       <c r="I218" s="0" t="n">
@@ -43025,28 +43072,28 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="7" t="s">
         <v>1594</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="7" t="s">
         <v>1595</v>
       </c>
-      <c r="C219" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D219" s="0" t="s">
+      <c r="C219" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F219" s="0" t="s">
+      <c r="F219" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G219" s="0" t="s">
+      <c r="G219" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H219" s="5" t="s">
+      <c r="H219" s="7" t="s">
         <v>1597</v>
       </c>
       <c r="I219" s="0" t="n">
@@ -43075,28 +43122,28 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="7" t="s">
         <v>1600</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="7" t="s">
         <v>1601</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D220" s="0" t="s">
+      <c r="C220" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F220" s="0" t="s">
+      <c r="F220" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G220" s="0" t="s">
+      <c r="G220" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="H220" s="7" t="s">
         <v>1597</v>
       </c>
       <c r="I220" s="0" t="n">
@@ -43122,28 +43169,28 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="7" t="s">
         <v>1602</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="7" t="s">
         <v>1603</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D221" s="0" t="s">
+      <c r="C221" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="F221" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G221" s="0" t="s">
+      <c r="G221" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="H221" s="7" t="s">
         <v>1605</v>
       </c>
       <c r="I221" s="0" t="n">
@@ -43169,28 +43216,28 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="7" t="s">
         <v>1606</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" s="7" t="s">
         <v>1608</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="F222" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G222" s="0" t="s">
+      <c r="G222" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="H222" s="5" t="s">
+      <c r="H222" s="7" t="s">
         <v>1609</v>
       </c>
       <c r="I222" s="0" t="n">
@@ -43216,28 +43263,28 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="7" t="s">
         <v>1610</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="7" t="s">
         <v>1611</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D223" s="0" t="s">
+      <c r="C223" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F223" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G223" s="0" t="s">
+      <c r="G223" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="H223" s="5" t="s">
+      <c r="H223" s="7" t="s">
         <v>1612</v>
       </c>
       <c r="I223" s="0" t="n">
@@ -43263,28 +43310,28 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="7" t="s">
         <v>1613</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="C224" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D224" s="0" t="s">
+      <c r="C224" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="F224" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G224" s="0" t="s">
+      <c r="G224" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="H224" s="5" t="s">
+      <c r="H224" s="7" t="s">
         <v>1612</v>
       </c>
       <c r="I224" s="0" t="n">
@@ -43310,28 +43357,28 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D225" s="0" t="s">
+      <c r="C225" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F225" s="0" t="s">
+      <c r="F225" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G225" s="0" t="s">
+      <c r="G225" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="H225" s="5" t="s">
+      <c r="H225" s="7" t="s">
         <v>1612</v>
       </c>
       <c r="I225" s="0" t="n">
@@ -43357,28 +43404,28 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D226" s="0" t="s">
+      <c r="C226" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="F226" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G226" s="0" t="s">
+      <c r="G226" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="H226" s="5" t="s">
+      <c r="H226" s="7" t="s">
         <v>1612</v>
       </c>
       <c r="I226" s="0" t="n">
@@ -43404,28 +43451,28 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="7" t="s">
         <v>1619</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="C227" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D227" s="0" t="s">
+      <c r="C227" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="F227" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G227" s="0" t="s">
+      <c r="G227" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="H227" s="7" t="s">
         <v>1612</v>
       </c>
       <c r="I227" s="0" t="n">
@@ -43451,28 +43498,28 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D228" s="0" t="s">
+      <c r="C228" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F228" s="0" t="s">
+      <c r="F228" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G228" s="0" t="s">
+      <c r="G228" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H228" s="5" t="s">
+      <c r="H228" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I228" s="0" t="n">
@@ -43498,28 +43545,28 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="C229" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D229" s="0" t="s">
+      <c r="C229" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D229" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F229" s="0" t="s">
+      <c r="F229" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G229" s="0" t="s">
+      <c r="G229" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H229" s="5" t="s">
+      <c r="H229" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I229" s="0" t="n">
@@ -43545,28 +43592,28 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="C230" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D230" s="0" t="s">
+      <c r="C230" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D230" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F230" s="0" t="s">
+      <c r="F230" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G230" s="0" t="s">
+      <c r="G230" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H230" s="5" t="s">
+      <c r="H230" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I230" s="0" t="n">
@@ -43592,28 +43639,28 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="7" t="s">
         <v>1626</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="7" t="s">
         <v>1627</v>
       </c>
-      <c r="C231" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D231" s="0" t="s">
+      <c r="C231" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F231" s="0" t="s">
+      <c r="F231" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G231" s="0" t="s">
+      <c r="G231" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H231" s="5" t="s">
+      <c r="H231" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I231" s="0" t="n">
@@ -43639,28 +43686,28 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="7" t="s">
         <v>1628</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="7" t="s">
         <v>1629</v>
       </c>
-      <c r="C232" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D232" s="0" t="s">
+      <c r="C232" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F232" s="0" t="s">
+      <c r="F232" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G232" s="0" t="s">
+      <c r="G232" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="H232" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I232" s="0" t="n">
@@ -43686,28 +43733,28 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="7" t="s">
         <v>1630</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="7" t="s">
         <v>1631</v>
       </c>
-      <c r="C233" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D233" s="0" t="s">
+      <c r="C233" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F233" s="0" t="s">
+      <c r="F233" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G233" s="0" t="s">
+      <c r="G233" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H233" s="5" t="s">
+      <c r="H233" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I233" s="0" t="n">
@@ -43733,28 +43780,28 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="7" t="s">
         <v>1632</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="7" t="s">
         <v>1633</v>
       </c>
-      <c r="C234" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D234" s="0" t="s">
+      <c r="C234" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D234" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="E234" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F234" s="0" t="s">
+      <c r="F234" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G234" s="0" t="s">
+      <c r="G234" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H234" s="5" t="s">
+      <c r="H234" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I234" s="0" t="n">
@@ -43780,28 +43827,28 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="7" t="s">
         <v>1634</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="7" t="s">
         <v>1635</v>
       </c>
-      <c r="C235" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D235" s="0" t="s">
+      <c r="C235" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D235" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="E235" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F235" s="0" t="s">
+      <c r="F235" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G235" s="0" t="s">
+      <c r="G235" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H235" s="5" t="s">
+      <c r="H235" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I235" s="0" t="n">
@@ -43827,28 +43874,28 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="7" t="s">
         <v>1636</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="7" t="s">
         <v>1637</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D236" s="0" t="s">
+      <c r="C236" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D236" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="E236" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="F236" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G236" s="0" t="s">
+      <c r="G236" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="H236" s="5" t="s">
+      <c r="H236" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="I236" s="0" t="n">
@@ -43874,28 +43921,28 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="7" t="s">
         <v>1638</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="7" t="s">
         <v>1639</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D237" s="0" t="s">
+      <c r="C237" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D237" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="E237" s="0" t="s">
+      <c r="E237" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F237" s="0" t="s">
+      <c r="F237" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G237" s="0" t="s">
+      <c r="G237" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="H237" s="5" t="s">
+      <c r="H237" s="7" t="s">
         <v>1641</v>
       </c>
       <c r="I237" s="0" t="n">
@@ -43921,28 +43968,28 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="C238" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D238" s="0" t="s">
+      <c r="C238" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D238" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="E238" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F238" s="0" t="s">
+      <c r="F238" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G238" s="0" t="s">
+      <c r="G238" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="H238" s="5" t="s">
+      <c r="H238" s="7" t="s">
         <v>1641</v>
       </c>
       <c r="I238" s="0" t="n">
@@ -43968,28 +44015,28 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="7" t="s">
         <v>1645</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="7" t="s">
         <v>1646</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D239" s="0" t="s">
+      <c r="C239" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D239" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="E239" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="F239" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G239" s="0" t="s">
+      <c r="G239" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="H239" s="5" t="s">
+      <c r="H239" s="7" t="s">
         <v>1648</v>
       </c>
       <c r="I239" s="0" t="n">
@@ -44015,28 +44062,28 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D240" s="0" t="s">
+      <c r="C240" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="E240" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F240" s="0" t="s">
+      <c r="F240" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G240" s="0" t="s">
+      <c r="G240" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="H240" s="5" t="s">
+      <c r="H240" s="7" t="s">
         <v>1648</v>
       </c>
       <c r="I240" s="0" t="n">
@@ -44062,6 +44109,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H209" r:id="rId1" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H210" r:id="rId2" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H211" r:id="rId3" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H212" r:id="rId4" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H213" r:id="rId5" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H214" r:id="rId6" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H215" r:id="rId7" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H216" r:id="rId8" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H217" r:id="rId9" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H218" r:id="rId10" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="H221" r:id="rId11" display="https://doi.org/10.21504/amj.v3i2.826"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -48994,7 +49054,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49080,7 +49140,7 @@
       <c r="G2" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>1870</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -49130,7 +49190,7 @@
       <c r="G3" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>1870</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -49180,7 +49240,7 @@
       <c r="G4" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>1870</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -49226,8 +49286,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49346,7 +49406,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -49369,7 +49429,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -49386,7 +49446,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -49403,7 +49463,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -49420,7 +49480,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -49437,7 +49497,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -49454,7 +49514,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -49468,7 +49528,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -49488,7 +49548,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -49505,7 +49565,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -49525,7 +49585,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -49545,7 +49605,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="12" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -49562,7 +49622,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -49579,7 +49639,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="12" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -49596,7 +49656,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="12" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -49619,7 +49679,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="12" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -49636,7 +49696,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -49653,7 +49713,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -49673,7 +49733,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="12" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -49690,7 +49750,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="12" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -49713,7 +49773,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="12" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -49730,7 +49790,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="12" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -49750,7 +49810,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="12" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -49770,7 +49830,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="12" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -49790,7 +49850,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="12" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -49810,7 +49870,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="12" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -49830,7 +49890,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -49844,7 +49904,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -49864,7 +49924,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="12" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -49884,7 +49944,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="12" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -49901,7 +49961,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="12" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -49918,7 +49978,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="12" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -49938,7 +49998,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="12" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -49955,7 +50015,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="12" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -49975,7 +50035,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
+      <c r="A40" s="12" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -49995,7 +50055,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
+      <c r="A41" s="12" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -50014,7 +50074,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>41</v>
       </c>
@@ -50034,7 +50094,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>42</v>
       </c>
@@ -50057,7 +50117,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>43</v>
       </c>
@@ -50074,7 +50134,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>44</v>
       </c>
@@ -50114,7 +50174,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
@@ -50154,7 +50214,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
@@ -50171,7 +50231,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
@@ -50188,7 +50248,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
@@ -50205,7 +50265,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
@@ -50225,7 +50285,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
@@ -50264,6 +50324,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" display="https://doi.org/10.21504/amj.v2i3.608"/>
+    <hyperlink ref="B49" r:id="rId2" display="https://doi.org/10.21504/amj.v3i2.826"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12518" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12683" uniqueCount="2032">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -5694,6 +5694,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sources indicate that octave is generally used in culture?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuning octaves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note name octaves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel octaves?</t>
   </si>
   <si>
     <t xml:space="preserve">Other Notes</t>
@@ -5785,6 +5794,9 @@
     <t xml:space="preserve">5 cents resolution given, but no measurement device specified</t>
   </si>
   <si>
+    <t xml:space="preserve">No mention of the octave</t>
+  </si>
+  <si>
     <t xml:space="preserve">W. Surjodiningrat, A. Susanto, and P. J. Sudarjana. Tone Measurements of Outstanding Javanese Gamelans in Jogjakarta and Surakarta. Gadjah Mada University Press, 1972</t>
   </si>
   <si>
@@ -5821,7 +5833,7 @@
     <t xml:space="preserve">Mentions singing in parallel octaves. Likembe is tuned consistently to within 9 Hz of an octave.</t>
   </si>
   <si>
-    <t xml:space="preserve">5 Tunings taken from the same instrument, tuned by the same player on different days. “Kufuna has never shown any sign that he conceived of more than precisely one tuning pattern for his likembe. He always tuned his instrument to the same hexa- tonic scale, though with certain objectively measurable fluctuations in the intervals. These fluctuations, however, occurred within a clearly delimited margin of tolerance that was intra-culturally acceptable to him.”</t>
+    <t xml:space="preserve">5 Tunings taken from the same instrument, tuned by the same player on different days. “Kufuna has never shown any sign that he conceived of more than precisely one tuning pattern for his likembe. He always tuned his instrument to the same hexa- tonic scale, though with certain objectively measurable fluctuations in the intervals. These fluctuations, however, occurred within a clearly delimited margin of tolerance that was intra-culturally acceptable to him.” It’s also curious to hear that the author does not seem to mind the differences in tuning, despite being able to perceive them.</t>
   </si>
   <si>
     <t xml:space="preserve">W. Van Zanten. The equidistant heptatonic scale of the asena in malawi. Afr. Music, 6(1):107–125, 1980. doi: 10.21504/amj. V6i1.1099</t>
@@ -5868,6 +5880,9 @@
   </si>
   <si>
     <t xml:space="preserve">“The intervals struck simultaneously in the xylophone music of southern Cameroon are mainly thirds and octaves”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes notes in a scale using numbers; then upper and lower octaves are called “husbands” and “wives”</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Gottlieb. Sudan ii: Music of the blue nile province; the ingessana and berta tribes, 1986</t>
@@ -6150,10 +6165,13 @@
     <t xml:space="preserve">Author discusses playing of the second harmonics, corresponding to an octave above the fundamental.</t>
   </si>
   <si>
+    <t xml:space="preserve">The author speculates, but no mention is made of how the instruments were played.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Guillermo Abadia Morales</t>
+  </si>
+  <si>
     <t xml:space="preserve">No mention is made of how the instruments were played.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Guillermo Abadia Morales</t>
   </si>
   <si>
     <t xml:space="preserve">This source only provided absolute frequencies for notes in some recorded songs, along with transcriptions. I myself converted these into exact scales; methodology and code will be published somewhere.</t>
@@ -6510,10 +6528,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2019</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2020</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,7 +6571,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,7 +6579,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2023</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,7 +6587,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2024</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
     </row>
   </sheetData>
@@ -6771,8 +6789,8 @@
   </sheetPr>
   <dimension ref="A1:P467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33348,8 +33366,8 @@
   </sheetPr>
   <dimension ref="A1:AK240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51909,10 +51927,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51923,8 +51943,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="86.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="25.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="108"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="5" width="88.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="88.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="88.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51952,21 +51976,39 @@
       <c r="H1" s="6" t="s">
         <v>1888</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -51975,18 +52017,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -51995,39 +52046,57 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>1893</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1890</v>
-      </c>
       <c r="G4" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1899</v>
+        <v>1900</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52035,22 +52104,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1897</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1903</v>
+        <v>62</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52061,13 +52139,22 @@
         <v>1481</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1905</v>
+        <v>1908</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52078,30 +52165,48 @@
         <v>1520</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1911</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1910</v>
+        <v>1913</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52109,16 +52214,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1912</v>
+        <v>1915</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52126,19 +52240,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1910</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
@@ -52146,10 +52269,22 @@
         <v>1505</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52157,19 +52292,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1919</v>
+        <v>1923</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52177,73 +52324,109 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1926</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1929</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1910</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1931</v>
+        <v>1935</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52251,33 +52434,51 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1937</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1936</v>
+        <v>1940</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52285,116 +52486,174 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1945</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1947</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1946</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1947</v>
+        <v>1952</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1948</v>
+        <v>1953</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1954</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1951</v>
+        <v>1956</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1919</v>
+        <v>1923</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52402,36 +52661,54 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1959</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1919</v>
+        <v>1923</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52439,59 +52716,86 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>1965</v>
+        <v>1970</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52499,33 +52803,51 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52536,36 +52858,54 @@
         <v>1470</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1975</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>1974</v>
+        <v>1979</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52573,16 +52913,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1976</v>
+        <v>1981</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52590,16 +52939,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>1979</v>
+        <v>1984</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52607,36 +52965,54 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1983</v>
+        <v>1988</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52644,19 +53020,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1919</v>
+        <v>1923</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52664,19 +53049,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1919</v>
+        <v>1923</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52684,22 +53078,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1923</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>41</v>
       </c>
@@ -52707,19 +53110,28 @@
         <v>1544</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1998</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>42</v>
       </c>
@@ -52727,22 +53139,31 @@
         <v>1550</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>43</v>
       </c>
@@ -52750,13 +53171,22 @@
         <v>1567</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>1996</v>
+        <v>2001</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52767,19 +53197,28 @@
         <v>1873</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2003</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
@@ -52787,19 +53226,28 @@
         <v>1572</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2005</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
@@ -52807,19 +53255,28 @@
         <v>1575</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2008</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
@@ -52827,19 +53284,28 @@
         <v>1600</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
@@ -52847,16 +53313,25 @@
         <v>1608</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2012</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
@@ -52864,13 +53339,22 @@
         <v>1612</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2009</v>
+        <v>2014</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52881,13 +53365,22 @@
         <v>1615</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2011</v>
+        <v>2016</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52898,19 +53391,28 @@
         <v>1626</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
@@ -52918,17 +53420,26 @@
         <v>1644</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2019</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
@@ -52936,16 +53447,25 @@
         <v>1651</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2015</v>
+        <v>2021</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12683" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12766" uniqueCount="2054">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Tonic</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on tonality: a single number indicates a single tonic; a list of numbers clearly indicates the position of each note in the hierarchy.</t>
+    <t xml:space="preserve">Information on tonality: a single number indicates a single tonic; a list of numbers clearly indicates the position of each note in the hierarchy. The total count of “tonic notes” should be one greater than the number of “Intervals”.</t>
   </si>
   <si>
     <t xml:space="preserve">Culture</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">This can be a musical traditon, a country, a language group, or the name of a group of people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Continent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which continent was the scale / instrument from / where was a recording made?</t>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which geographical region was the scale / instrument from / where was a recording made?</t>
   </si>
   <si>
     <t xml:space="preserve">Tuning</t>
@@ -4997,6 +4997,36 @@
     <t xml:space="preserve">227;160;307;192</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaen hok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203;312;180;215;295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. E. Miller. Traditional Music of the Lao: Kaen Playing and Mawlum Singing in Northeast Thai- land. Number 13. Praeger, 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two tunings are listed, from separate blowings on the same instrument, but they are very similar; I am reporting the average here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeorgChant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190;174;166;163;198;186;168;170;182;176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Scherbaum, Nana Mzhavanadze, Simha Arom, Sebastian Rosenzweig, and Meinard Müller. Tonal Organization of the Erkomaishvili Dataset: Pitches, Scales, Melodies and Harmonies. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mardiswara</t>
   </si>
   <si>
@@ -5657,6 +5687,9 @@
     <t xml:space="preserve">1;2;3;5;6,1;2;4;5;6,1;3;4;5;6,1;3;4;5;7</t>
   </si>
   <si>
+    <t xml:space="preserve">There seems to be a mistake in the text: up to 17 intervals are given, but only 17 notes are listed, with one ‘IV’ missing, yet the interval from ‘III’ to ‘V’ is no bigger than all of the other intervals. There is no discussion of this discrepancy in the text, so I assume it is just a mistake in the table.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burma 2</t>
   </si>
   <si>
@@ -5676,6 +5709,27 @@
   </si>
   <si>
     <t xml:space="preserve">1;2;3;4;5;6;7;1;2;3;4;5;6;7;1;2;3;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaen baet 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190;97;213;200;87;213;205;183;100;217;206;85;192;217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2;3;4;5;6;7;1;2;3;4;5;6;7;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7;1;3;4;5,3;4;6;7;1,4;5;7;1;2,1;3;4;5;7,4;6;7;1;3,5;7;1;2;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two tunings are listed, from separate blowings on the same instrument, but they are very similar; I am reporting the average here. In this case, the “tonic” column does not indicate the tonic, but instead a tuning system.  The tonic is given by the first note in each mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaen baet 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199;95;208;200;103;199;202;189;109;204;206;101;194;214</t>
   </si>
   <si>
     <t xml:space="preserve">Number</t>
@@ -6178,6 +6232,18 @@
   </si>
   <si>
     <t xml:space="preserve">While the author does not directly address the use of the octave, it is clear that the players are heavily influenced by western music. See Fig 3 for a player’s use of solfege notation; the transcriptions were made by one of the players, on Western staff notation, which has octave notes clearly shown; one player mentions using an electronic tuner on a mobile phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octave pairs are named with a mother-child relationship. Absolute pitch can be fixed according to: the singer that the kaen will accompany; a soloist’s taste; if for a kaen troupe then the pitches are standardized. Octave tuning is “corrected … until … pure”, and tunes reeds together if they are related by an octave. “Pitches may be  played singly or in octaves”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“It is usual among conscientious makers that in a finished kaen the nodes should form a straight line just below the windchest.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Scherbaum, Nana Mzhavanadze, Simha Arom, Sebastian Rosenzweig, and Meinard Müller. Tonal Organization of the Erkomaishvili Dataset: Pitches, Scales, Melodies and Harmonies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although debated, quotes other sources as saying that fifths are the most important part of scales, not octaves; octaves are typically stretched by 40-50 cents.</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -6387,8 +6453,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6453,7 +6519,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -6483,7 +6549,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -6515,7 +6581,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6528,10 +6594,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>2022</v>
+        <v>2044</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2023</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6539,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2024</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2025</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2026</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6629,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2027</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +6637,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2028</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6645,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2029</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2030</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,7 +6661,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2031</v>
+        <v>2053</v>
       </c>
     </row>
   </sheetData>
@@ -6616,8 +6682,8 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6651,7 +6717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -6668,7 +6734,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6789,8 +6855,8 @@
   </sheetPr>
   <dimension ref="A1:P467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30178,8 +30244,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33364,10 +33430,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK240"/>
+  <dimension ref="A1:AK242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H170" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M195" activeCellId="0" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33404,7 +33470,7 @@
       <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -46416,6 +46482,109 @@
       </c>
       <c r="P240" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="G241" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H241" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K241" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L241" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M241" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N241" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O241" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P241" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q241" s="0" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H242" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="J242" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K242" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L242" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="M242" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N242" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O242" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P242" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -46449,8 +46618,8 @@
   </sheetPr>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46480,7 +46649,7 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -46519,10 +46688,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -46537,7 +46706,7 @@
         <v>891</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>12</v>
@@ -46555,7 +46724,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>905</v>
@@ -46569,10 +46738,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -46587,7 +46756,7 @@
         <v>891</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>12</v>
@@ -46605,7 +46774,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>905</v>
@@ -46619,10 +46788,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -46637,7 +46806,7 @@
         <v>891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>12</v>
@@ -46655,7 +46824,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>905</v>
@@ -46669,10 +46838,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -46687,7 +46856,7 @@
         <v>891</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>12</v>
@@ -46705,7 +46874,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>905</v>
@@ -46719,10 +46888,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1</v>
@@ -46737,7 +46906,7 @@
         <v>891</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>12</v>
@@ -46755,7 +46924,7 @@
         <v>44</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>905</v>
@@ -46769,10 +46938,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1</v>
@@ -46787,7 +46956,7 @@
         <v>891</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>12</v>
@@ -46805,7 +46974,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>905</v>
@@ -46819,10 +46988,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1</v>
@@ -46837,7 +47006,7 @@
         <v>891</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>12</v>
@@ -46855,7 +47024,7 @@
         <v>44</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>905</v>
@@ -46869,10 +47038,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1</v>
@@ -46887,7 +47056,7 @@
         <v>891</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>12</v>
@@ -46905,7 +47074,7 @@
         <v>44</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>905</v>
@@ -46919,10 +47088,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1</v>
@@ -46937,7 +47106,7 @@
         <v>891</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>12</v>
@@ -46955,7 +47124,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>905</v>
@@ -46969,10 +47138,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
@@ -46987,7 +47156,7 @@
         <v>891</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>12</v>
@@ -47005,7 +47174,7 @@
         <v>44</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>905</v>
@@ -47019,10 +47188,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1</v>
@@ -47037,7 +47206,7 @@
         <v>891</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>12</v>
@@ -47055,7 +47224,7 @@
         <v>44</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>905</v>
@@ -47069,10 +47238,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
@@ -47087,7 +47256,7 @@
         <v>891</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>12</v>
@@ -47105,7 +47274,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>905</v>
@@ -47119,10 +47288,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -47137,7 +47306,7 @@
         <v>891</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>12</v>
@@ -47155,7 +47324,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>905</v>
@@ -47169,10 +47338,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1</v>
@@ -47187,7 +47356,7 @@
         <v>891</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>12</v>
@@ -47205,7 +47374,7 @@
         <v>44</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>905</v>
@@ -47219,10 +47388,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -47237,7 +47406,7 @@
         <v>891</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>12</v>
@@ -47255,7 +47424,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>905</v>
@@ -47269,10 +47438,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>1</v>
@@ -47287,7 +47456,7 @@
         <v>891</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>12</v>
@@ -47305,7 +47474,7 @@
         <v>44</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>905</v>
@@ -47319,10 +47488,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>1</v>
@@ -47337,7 +47506,7 @@
         <v>891</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>12</v>
@@ -47355,7 +47524,7 @@
         <v>44</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>905</v>
@@ -47369,10 +47538,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>1</v>
@@ -47387,7 +47556,7 @@
         <v>891</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -47405,7 +47574,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>905</v>
@@ -47419,10 +47588,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>1</v>
@@ -47437,7 +47606,7 @@
         <v>891</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -47455,7 +47624,7 @@
         <v>44</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>905</v>
@@ -47469,10 +47638,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>1</v>
@@ -47487,7 +47656,7 @@
         <v>891</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -47505,7 +47674,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>905</v>
@@ -47519,10 +47688,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>1</v>
@@ -47537,7 +47706,7 @@
         <v>891</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -47555,7 +47724,7 @@
         <v>44</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>905</v>
@@ -47569,10 +47738,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>1</v>
@@ -47587,7 +47756,7 @@
         <v>891</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>12</v>
@@ -47605,7 +47774,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>905</v>
@@ -47619,10 +47788,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
@@ -47637,7 +47806,7 @@
         <v>891</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>12</v>
@@ -47655,7 +47824,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>905</v>
@@ -47669,10 +47838,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -47687,7 +47856,7 @@
         <v>891</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>12</v>
@@ -47705,7 +47874,7 @@
         <v>44</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>905</v>
@@ -47719,10 +47888,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
@@ -47737,7 +47906,7 @@
         <v>891</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>12</v>
@@ -47755,7 +47924,7 @@
         <v>44</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>905</v>
@@ -47769,10 +47938,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
@@ -47787,7 +47956,7 @@
         <v>891</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>12</v>
@@ -47805,7 +47974,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>905</v>
@@ -47819,10 +47988,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1</v>
@@ -47837,7 +48006,7 @@
         <v>891</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
@@ -47855,7 +48024,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>905</v>
@@ -47869,10 +48038,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
@@ -47887,7 +48056,7 @@
         <v>891</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>12</v>
@@ -47905,7 +48074,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>905</v>
@@ -47919,10 +48088,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
@@ -47937,7 +48106,7 @@
         <v>891</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>12</v>
@@ -47955,7 +48124,7 @@
         <v>44</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>905</v>
@@ -47969,10 +48138,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>1</v>
@@ -47987,7 +48156,7 @@
         <v>891</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>12</v>
@@ -48005,7 +48174,7 @@
         <v>44</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>905</v>
@@ -48019,10 +48188,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
@@ -48037,7 +48206,7 @@
         <v>891</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>12</v>
@@ -48055,7 +48224,7 @@
         <v>44</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>905</v>
@@ -48069,10 +48238,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
@@ -48087,7 +48256,7 @@
         <v>891</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>12</v>
@@ -48105,7 +48274,7 @@
         <v>44</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>905</v>
@@ -48119,10 +48288,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1</v>
@@ -48137,7 +48306,7 @@
         <v>891</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>12</v>
@@ -48155,7 +48324,7 @@
         <v>44</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>905</v>
@@ -48169,10 +48338,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
@@ -48187,7 +48356,7 @@
         <v>891</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>12</v>
@@ -48205,7 +48374,7 @@
         <v>44</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>905</v>
@@ -48219,10 +48388,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>1</v>
@@ -48237,7 +48406,7 @@
         <v>891</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>12</v>
@@ -48255,7 +48424,7 @@
         <v>44</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>905</v>
@@ -48269,10 +48438,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>1</v>
@@ -48287,7 +48456,7 @@
         <v>891</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>12</v>
@@ -48305,7 +48474,7 @@
         <v>44</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>905</v>
@@ -48319,10 +48488,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
@@ -48337,7 +48506,7 @@
         <v>891</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12</v>
@@ -48355,7 +48524,7 @@
         <v>44</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>905</v>
@@ -48369,10 +48538,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1</v>
@@ -48387,7 +48556,7 @@
         <v>891</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>12</v>
@@ -48405,7 +48574,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>905</v>
@@ -48419,10 +48588,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1</v>
@@ -48437,7 +48606,7 @@
         <v>891</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>12</v>
@@ -48455,7 +48624,7 @@
         <v>44</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>905</v>
@@ -48469,10 +48638,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>1</v>
@@ -48487,7 +48656,7 @@
         <v>891</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>12</v>
@@ -48505,7 +48674,7 @@
         <v>44</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>905</v>
@@ -48519,10 +48688,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
@@ -48537,7 +48706,7 @@
         <v>891</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>12</v>
@@ -48555,7 +48724,7 @@
         <v>44</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>905</v>
@@ -48569,10 +48738,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
@@ -48587,7 +48756,7 @@
         <v>891</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>12</v>
@@ -48605,7 +48774,7 @@
         <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>905</v>
@@ -48619,10 +48788,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
@@ -48637,7 +48806,7 @@
         <v>891</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>12</v>
@@ -48655,7 +48824,7 @@
         <v>44</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>905</v>
@@ -48669,10 +48838,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>1</v>
@@ -48687,7 +48856,7 @@
         <v>891</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>12</v>
@@ -48705,7 +48874,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>905</v>
@@ -48719,10 +48888,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>1</v>
@@ -48737,7 +48906,7 @@
         <v>891</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>12</v>
@@ -48755,7 +48924,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>905</v>
@@ -48769,10 +48938,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -48787,7 +48956,7 @@
         <v>891</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>12</v>
@@ -48805,7 +48974,7 @@
         <v>44</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>905</v>
@@ -48819,10 +48988,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>1</v>
@@ -48837,7 +49006,7 @@
         <v>891</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>12</v>
@@ -48855,7 +49024,7 @@
         <v>44</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>905</v>
@@ -48869,10 +49038,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
@@ -48887,7 +49056,7 @@
         <v>891</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>12</v>
@@ -48905,7 +49074,7 @@
         <v>44</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>905</v>
@@ -48919,10 +49088,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
@@ -48937,7 +49106,7 @@
         <v>891</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>12</v>
@@ -48955,7 +49124,7 @@
         <v>44</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>905</v>
@@ -48969,10 +49138,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
@@ -48987,7 +49156,7 @@
         <v>891</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>12</v>
@@ -49005,7 +49174,7 @@
         <v>44</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>905</v>
@@ -49019,10 +49188,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
@@ -49037,7 +49206,7 @@
         <v>891</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>12</v>
@@ -49055,7 +49224,7 @@
         <v>44</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>905</v>
@@ -49085,8 +49254,8 @@
   </sheetPr>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49158,10 +49327,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -49179,7 +49348,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3</v>
@@ -49207,10 +49376,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -49228,7 +49397,7 @@
         <v>61</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3</v>
@@ -49249,10 +49418,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -49270,7 +49439,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
@@ -49294,7 +49463,7 @@
         <v>165</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -49312,7 +49481,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3</v>
@@ -49333,10 +49502,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -49354,7 +49523,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
@@ -49375,10 +49544,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -49396,7 +49565,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
@@ -49417,10 +49586,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -49438,7 +49607,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
@@ -49459,10 +49628,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -49480,7 +49649,7 @@
         <v>61</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
@@ -49501,10 +49670,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -49522,7 +49691,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
@@ -49543,10 +49712,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -49564,7 +49733,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3</v>
@@ -49585,10 +49754,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -49606,7 +49775,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
@@ -49627,10 +49796,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -49648,7 +49817,7 @@
         <v>61</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -49669,10 +49838,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -49690,7 +49859,7 @@
         <v>61</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -49711,10 +49880,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -49732,7 +49901,7 @@
         <v>61</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3</v>
@@ -49753,10 +49922,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -49774,7 +49943,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3</v>
@@ -49795,10 +49964,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -49816,7 +49985,7 @@
         <v>61</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3</v>
@@ -49837,10 +50006,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -49858,7 +50027,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
@@ -49879,10 +50048,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -49900,7 +50069,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
@@ -49921,10 +50090,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -49942,7 +50111,7 @@
         <v>61</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3</v>
@@ -49963,10 +50132,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -49984,7 +50153,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3</v>
@@ -50005,10 +50174,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -50026,7 +50195,7 @@
         <v>61</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
@@ -50047,10 +50216,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -50068,7 +50237,7 @@
         <v>61</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
@@ -50089,10 +50258,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -50110,7 +50279,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>3</v>
@@ -50131,10 +50300,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -50152,7 +50321,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>3</v>
@@ -50173,10 +50342,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -50194,7 +50363,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3</v>
@@ -50218,7 +50387,7 @@
         <v>1048</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>62</v>
@@ -50233,10 +50402,10 @@
         <v>428</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3</v>
@@ -50251,7 +50420,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>996</v>
@@ -50265,10 +50434,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -50277,7 +50446,7 @@
         <v>892</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>261</v>
@@ -50286,7 +50455,7 @@
         <v>988</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>3</v>
@@ -50301,7 +50470,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>1014</v>
@@ -50315,10 +50484,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -50327,7 +50496,7 @@
         <v>892</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>261</v>
@@ -50336,7 +50505,7 @@
         <v>988</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>3</v>
@@ -50351,7 +50520,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>1014</v>
@@ -50365,10 +50534,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -50377,7 +50546,7 @@
         <v>892</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>261</v>
@@ -50386,7 +50555,7 @@
         <v>988</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
@@ -50401,7 +50570,7 @@
         <v>44</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>1014</v>
@@ -50415,10 +50584,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -50427,7 +50596,7 @@
         <v>892</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>261</v>
@@ -50436,7 +50605,7 @@
         <v>988</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3</v>
@@ -50451,7 +50620,7 @@
         <v>44</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>1014</v>
@@ -50465,10 +50634,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -50477,7 +50646,7 @@
         <v>892</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>261</v>
@@ -50486,7 +50655,7 @@
         <v>988</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3</v>
@@ -50501,7 +50670,7 @@
         <v>44</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>1014</v>
@@ -50515,10 +50684,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1818</v>
+        <v>1828</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>62</v>
@@ -50527,7 +50696,7 @@
         <v>892</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>261</v>
@@ -50536,7 +50705,7 @@
         <v>988</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3</v>
@@ -50565,10 +50734,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1819</v>
+        <v>1829</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -50577,7 +50746,7 @@
         <v>892</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>261</v>
@@ -50586,7 +50755,7 @@
         <v>988</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3</v>
@@ -50601,7 +50770,7 @@
         <v>44</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>1819</v>
+        <v>1829</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>1014</v>
@@ -50615,7 +50784,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>933</v>
@@ -50627,16 +50796,16 @@
         <v>892</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1821</v>
+        <v>1831</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>738</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1821</v>
+        <v>1831</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
@@ -50665,10 +50834,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1822</v>
+        <v>1832</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1823</v>
+        <v>1833</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>62</v>
@@ -50686,7 +50855,7 @@
         <v>978</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
@@ -50701,7 +50870,7 @@
         <v>44</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>1824</v>
+        <v>1834</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>905</v>
@@ -50715,7 +50884,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>975</v>
@@ -50736,7 +50905,7 @@
         <v>978</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
@@ -50768,7 +50937,7 @@
         <v>1102</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1825</v>
+        <v>1835</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>62</v>
@@ -50786,7 +50955,7 @@
         <v>1106</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -50801,7 +50970,7 @@
         <v>44</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>905</v>
@@ -50818,7 +50987,7 @@
         <v>889</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1827</v>
+        <v>1837</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -50836,7 +51005,7 @@
         <v>893</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3</v>
@@ -50851,7 +51020,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>1828</v>
+        <v>1838</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>905</v>
@@ -50865,10 +51034,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -50886,7 +51055,7 @@
         <v>893</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>3</v>
@@ -50915,10 +51084,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1831</v>
+        <v>1841</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -50936,7 +51105,7 @@
         <v>893</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>3</v>
@@ -50965,10 +51134,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -50986,7 +51155,7 @@
         <v>893</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3</v>
@@ -51001,7 +51170,7 @@
         <v>44</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>905</v>
@@ -51018,7 +51187,7 @@
         <v>895</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1836</v>
+        <v>1846</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -51036,7 +51205,7 @@
         <v>893</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3</v>
@@ -51051,7 +51220,7 @@
         <v>44</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>905</v>
@@ -51065,10 +51234,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1838</v>
+        <v>1848</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>62</v>
@@ -51086,7 +51255,7 @@
         <v>796</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3</v>
@@ -51101,7 +51270,7 @@
         <v>44</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>996</v>
@@ -51115,10 +51284,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1841</v>
+        <v>1851</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>62</v>
@@ -51136,7 +51305,7 @@
         <v>796</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
@@ -51151,7 +51320,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>1843</v>
+        <v>1853</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>996</v>
@@ -51165,10 +51334,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1845</v>
+        <v>1855</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>62</v>
@@ -51186,7 +51355,7 @@
         <v>796</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3</v>
@@ -51201,7 +51370,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>996</v>
@@ -51215,10 +51384,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1847</v>
+        <v>1857</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -51236,7 +51405,7 @@
         <v>796</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>3</v>
@@ -51251,7 +51420,7 @@
         <v>44</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>1848</v>
+        <v>1858</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>905</v>
@@ -51263,15 +51432,15 @@
         <v>60</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>1849</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1851</v>
+        <v>1861</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>62</v>
@@ -51289,7 +51458,7 @@
         <v>796</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3</v>
@@ -51304,7 +51473,7 @@
         <v>44</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>1848</v>
+        <v>1858</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>905</v>
@@ -51318,10 +51487,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1852</v>
+        <v>1862</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -51339,7 +51508,7 @@
         <v>796</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3</v>
@@ -51354,7 +51523,7 @@
         <v>44</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>1014</v>
@@ -51368,10 +51537,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1855</v>
+        <v>1865</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -51389,7 +51558,7 @@
         <v>796</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3</v>
@@ -51404,7 +51573,7 @@
         <v>44</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>1014</v>
@@ -51418,10 +51587,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
@@ -51439,7 +51608,7 @@
         <v>796</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>3</v>
@@ -51454,7 +51623,7 @@
         <v>44</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>1014</v>
@@ -51471,7 +51640,7 @@
         <v>1314</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1861</v>
+        <v>1871</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>62</v>
@@ -51489,7 +51658,7 @@
         <v>796</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
@@ -51518,10 +51687,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>62</v>
@@ -51530,16 +51699,16 @@
         <v>892</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>3</v>
@@ -51554,7 +51723,7 @@
         <v>44</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>1014</v>
@@ -51568,10 +51737,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1866</v>
+        <v>1876</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -51580,16 +51749,16 @@
         <v>892</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -51604,7 +51773,7 @@
         <v>44</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>1014</v>
@@ -51618,10 +51787,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2</v>
@@ -51630,16 +51799,16 @@
         <v>892</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>3</v>
@@ -51654,7 +51823,7 @@
         <v>44</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>1014</v>
@@ -51682,10 +51851,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51696,7 +51865,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51751,16 +51921,19 @@
       <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1872</v>
+        <v>1882</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>892</v>
@@ -51775,7 +51948,7 @@
         <v>978</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>44</v>
@@ -51790,7 +51963,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1824</v>
+        <v>1834</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>1014</v>
@@ -51802,18 +51975,21 @@
         <v>60</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>1874</v>
+        <v>1884</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1875</v>
+        <v>1886</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1876</v>
+        <v>1887</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1877</v>
+        <v>1888</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>892</v>
@@ -51828,7 +52004,7 @@
         <v>978</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>44</v>
@@ -51843,7 +52019,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>1878</v>
+        <v>1889</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>905</v>
@@ -51855,18 +52031,21 @@
         <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>1874</v>
+        <v>1884</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1879</v>
+        <v>1890</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1880</v>
+        <v>1891</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1881</v>
+        <v>1892</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>892</v>
@@ -51881,7 +52060,7 @@
         <v>978</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>44</v>
@@ -51896,7 +52075,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>1878</v>
+        <v>1889</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>905</v>
@@ -51908,7 +52087,122 @@
         <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>1874</v>
+        <v>1884</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>1896</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>1896</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>1897</v>
       </c>
     </row>
   </sheetData>
@@ -51927,12 +52221,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51953,37 +52247,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1883</v>
+        <v>1901</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1884</v>
+        <v>1902</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1885</v>
+        <v>1903</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1886</v>
+        <v>1904</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1887</v>
+        <v>1905</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1888</v>
+        <v>1906</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1889</v>
+        <v>1907</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>1890</v>
+        <v>1908</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1891</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51991,13 +52285,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1892</v>
+        <v>1910</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1893</v>
+        <v>1911</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>62</v>
@@ -52017,16 +52311,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1894</v>
+        <v>1912</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1895</v>
+        <v>1913</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1893</v>
+        <v>1911</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>62</v>
@@ -52046,16 +52340,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1896</v>
+        <v>1914</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1897</v>
+        <v>1915</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1893</v>
+        <v>1911</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>62</v>
@@ -52075,19 +52369,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1898</v>
+        <v>1916</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1901</v>
+        <v>1919</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>62</v>
@@ -52096,7 +52390,7 @@
         <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1902</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52104,31 +52398,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1903</v>
+        <v>1921</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1904</v>
+        <v>1922</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1905</v>
+        <v>1923</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1906</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52139,13 +52433,13 @@
         <v>1481</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1907</v>
+        <v>1925</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1908</v>
+        <v>1926</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>62</v>
@@ -52154,7 +52448,7 @@
         <v>62</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52165,22 +52459,22 @@
         <v>1520</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1909</v>
+        <v>1927</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1911</v>
+        <v>1929</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52188,16 +52482,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1912</v>
+        <v>1930</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1913</v>
+        <v>1931</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>62</v>
@@ -52214,16 +52508,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1914</v>
+        <v>1932</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1909</v>
+        <v>1927</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1915</v>
+        <v>1933</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>62</v>
@@ -52232,7 +52526,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52240,16 +52534,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1916</v>
+        <v>1934</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1909</v>
+        <v>1927</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>62</v>
@@ -52258,7 +52552,7 @@
         <v>62</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1917</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52269,13 +52563,13 @@
         <v>1505</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1918</v>
+        <v>1936</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1919</v>
+        <v>1937</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>62</v>
@@ -52292,19 +52586,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1920</v>
+        <v>1938</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1921</v>
+        <v>1939</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1922</v>
+        <v>1940</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>62</v>
@@ -52324,16 +52618,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1924</v>
+        <v>1942</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1925</v>
+        <v>1943</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1926</v>
+        <v>1944</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>62</v>
@@ -52342,7 +52636,7 @@
         <v>62</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52350,19 +52644,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1927</v>
+        <v>1945</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>1910</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>1929</v>
+        <v>1947</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>62</v>
@@ -52379,28 +52673,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1930</v>
+        <v>1948</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1931</v>
+        <v>1949</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1932</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52408,19 +52702,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1933</v>
+        <v>1951</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1934</v>
+        <v>1952</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1935</v>
+        <v>1953</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>62</v>
@@ -52434,25 +52728,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1936</v>
+        <v>1954</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1937</v>
+        <v>1955</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52460,19 +52754,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1938</v>
+        <v>1956</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1940</v>
+        <v>1958</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>62</v>
@@ -52486,22 +52780,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>1941</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1923</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>62</v>
@@ -52518,16 +52812,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1944</v>
+        <v>1962</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1945</v>
+        <v>1963</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>62</v>
@@ -52536,7 +52830,7 @@
         <v>62</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52544,28 +52838,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1946</v>
+        <v>1964</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1947</v>
+        <v>1965</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1948</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52573,22 +52867,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1949</v>
+        <v>1967</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1950</v>
+        <v>1968</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1904</v>
+        <v>1922</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1951</v>
+        <v>1969</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>62</v>
@@ -52603,16 +52897,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1952</v>
+        <v>1970</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1953</v>
+        <v>1971</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1954</v>
+        <v>1972</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>62</v>
@@ -52629,28 +52923,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1955</v>
+        <v>1973</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1956</v>
+        <v>1974</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1904</v>
+        <v>1922</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1957</v>
+        <v>1975</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>62</v>
@@ -52661,19 +52955,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1958</v>
+        <v>1976</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1959</v>
+        <v>1977</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>62</v>
@@ -52687,19 +52981,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1960</v>
+        <v>1978</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1961</v>
+        <v>1979</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1962</v>
+        <v>1980</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>62</v>
@@ -52716,19 +53010,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1963</v>
+        <v>1981</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>62</v>
@@ -52745,25 +53039,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>62</v>
@@ -52774,19 +53068,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1968</v>
+        <v>1986</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1969</v>
+        <v>1987</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>62</v>
@@ -52803,19 +53097,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1971</v>
+        <v>1989</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>62</v>
@@ -52832,13 +53126,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1972</v>
+        <v>1990</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>62</v>
@@ -52858,22 +53152,22 @@
         <v>1470</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1973</v>
+        <v>1991</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1974</v>
+        <v>1992</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1975</v>
+        <v>1993</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>62</v>
@@ -52884,28 +53178,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1977</v>
+        <v>1995</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1978</v>
+        <v>1996</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>1979</v>
+        <v>1997</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52913,16 +53207,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>62</v>
@@ -52939,16 +53233,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1982</v>
+        <v>2000</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>1984</v>
+        <v>2002</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>62</v>
@@ -52965,19 +53259,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>62</v>
@@ -52994,16 +53288,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1909</v>
+        <v>1927</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>62</v>
@@ -53020,19 +53314,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>62</v>
@@ -53049,19 +53343,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>62</v>
@@ -53078,19 +53372,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>1996</v>
+        <v>2014</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1923</v>
+        <v>1941</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>62</v>
@@ -53110,16 +53404,16 @@
         <v>1544</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>62</v>
@@ -53139,16 +53433,16 @@
         <v>1550</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>62</v>
@@ -53160,7 +53454,7 @@
         <v>62</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>2000</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53171,13 +53465,13 @@
         <v>1567</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>62</v>
@@ -53194,25 +53488,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1909</v>
+        <v>1927</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>62</v>
@@ -53226,16 +53520,16 @@
         <v>1572</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>2005</v>
+        <v>2023</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>62</v>
@@ -53255,16 +53549,16 @@
         <v>1575</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>2007</v>
+        <v>2025</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2008</v>
+        <v>2026</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>62</v>
@@ -53284,13 +53578,13 @@
         <v>1600</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>2010</v>
+        <v>2028</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>62</v>
@@ -53302,7 +53596,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>2011</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53313,13 +53607,13 @@
         <v>1608</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>62</v>
@@ -53328,7 +53622,7 @@
         <v>62</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53339,22 +53633,22 @@
         <v>1612</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>2013</v>
+        <v>2031</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2014</v>
+        <v>2032</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53365,19 +53659,19 @@
         <v>1615</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>2015</v>
+        <v>2033</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2016</v>
+        <v>2034</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>62</v>
@@ -53391,13 +53685,13 @@
         <v>1626</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>2015</v>
+        <v>2033</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2017</v>
+        <v>2035</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>62</v>
@@ -53409,7 +53703,7 @@
         <v>62</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>2018</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53420,14 +53714,14 @@
         <v>1644</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="5" t="s">
-        <v>1910</v>
+        <v>1928</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2019</v>
+        <v>2037</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>62</v>
@@ -53447,16 +53741,16 @@
         <v>1651</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>2020</v>
+        <v>2038</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2021</v>
+        <v>2039</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>62</v>
@@ -53466,6 +53760,61 @@
       </c>
       <c r="J54" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>1928</v>
       </c>
     </row>
   </sheetData>

--- a/Scales_database/scales_database.xlsx
+++ b/Scales_database/scales_database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13667" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13723" uniqueCount="2164">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -5286,6 +5286,30 @@
   </si>
   <si>
     <t xml:space="preserve">203;174;142;196;226;165;135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pifano 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202;210;120;237;90;165;189;206;210;105;233;113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5;6;7;1;2;3;4;5;6;7;1;2;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Mendes. Fe no pife: as flautas de pifano no contexto cultural da banda cabacal dos Irmaos Aniceto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pifano 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189;223;72;260;63;168;191;196;213;99;261;89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pifano 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215;221;67;242;104;147;172;220;231;96;269;103</t>
   </si>
   <si>
     <t xml:space="preserve">Mardiswara</t>
@@ -6541,6 +6565,15 @@
   </si>
   <si>
     <t xml:space="preserve">I didn’t ask the Turkish scientist to check this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational; audacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not completely sure about whether this comes from recordings of instruments (which I normally list as “Measured: Instrument”), or from a recording of melodies, but it seems to be the former.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not discussed in enough detail.</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -6895,10 +6928,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2144</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2145</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2147</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +6971,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2149</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,7 +6979,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2150</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2151</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,7 +6995,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2152</v>
+        <v>2163</v>
       </c>
     </row>
   </sheetData>
@@ -33731,10 +33764,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL281"/>
+  <dimension ref="A1:AL284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B273" activeCellId="0" sqref="B273"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H282" activeCellId="0" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49706,6 +49739,165 @@
       </c>
       <c r="Q281" s="2" t="s">
         <v>1676</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H282" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="J282" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K282" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L282" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M282" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N282" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O282" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P282" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q282" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="G283" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H283" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="J283" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K283" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L283" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M283" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N283" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O283" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P283" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q283" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H284" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="J284" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K284" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M284" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N284" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="O284" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P284" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q284" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -49809,10 +50001,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -49827,7 +50019,7 @@
         <v>891</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>12</v>
@@ -49845,7 +50037,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>905</v>
@@ -49859,10 +50051,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -49877,7 +50069,7 @@
         <v>891</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>12</v>
@@ -49895,7 +50087,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>905</v>
@@ -49909,10 +50101,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -49927,7 +50119,7 @@
         <v>891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>12</v>
@@ -49945,7 +50137,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>905</v>
@@ -49959,10 +50151,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -49977,7 +50169,7 @@
         <v>891</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>12</v>
@@ -49995,7 +50187,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>905</v>
@@ -50009,10 +50201,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>1</v>
@@ -50027,7 +50219,7 @@
         <v>891</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>12</v>
@@ -50045,7 +50237,7 @@
         <v>44</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>905</v>
@@ -50059,10 +50251,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1</v>
@@ -50077,7 +50269,7 @@
         <v>891</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>12</v>
@@ -50095,7 +50287,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>905</v>
@@ -50109,10 +50301,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1</v>
@@ -50127,7 +50319,7 @@
         <v>891</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>12</v>
@@ -50145,7 +50337,7 @@
         <v>44</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>905</v>
@@ -50159,10 +50351,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1</v>
@@ -50177,7 +50369,7 @@
         <v>891</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>12</v>
@@ -50195,7 +50387,7 @@
         <v>44</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>905</v>
@@ -50209,10 +50401,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1</v>
@@ -50227,7 +50419,7 @@
         <v>891</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>12</v>
@@ -50245,7 +50437,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>905</v>
@@ -50259,10 +50451,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
@@ -50277,7 +50469,7 @@
         <v>891</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>12</v>
@@ -50295,7 +50487,7 @@
         <v>44</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>905</v>
@@ -50309,10 +50501,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1</v>
@@ -50327,7 +50519,7 @@
         <v>891</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>12</v>
@@ -50345,7 +50537,7 @@
         <v>44</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>905</v>
@@ -50359,10 +50551,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
@@ -50377,7 +50569,7 @@
         <v>891</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>12</v>
@@ -50395,7 +50587,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>905</v>
@@ -50409,10 +50601,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -50427,7 +50619,7 @@
         <v>891</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>12</v>
@@ -50445,7 +50637,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>905</v>
@@ -50459,10 +50651,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1</v>
@@ -50477,7 +50669,7 @@
         <v>891</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>12</v>
@@ -50495,7 +50687,7 @@
         <v>44</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>905</v>
@@ -50509,10 +50701,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -50527,7 +50719,7 @@
         <v>891</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>12</v>
@@ -50545,7 +50737,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>905</v>
@@ -50559,10 +50751,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>1</v>
@@ -50577,7 +50769,7 @@
         <v>891</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>12</v>
@@ -50595,7 +50787,7 @@
         <v>44</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>905</v>
@@ -50609,10 +50801,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>1</v>
@@ -50627,7 +50819,7 @@
         <v>891</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>12</v>
@@ -50645,7 +50837,7 @@
         <v>44</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>905</v>
@@ -50659,10 +50851,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>1</v>
@@ -50677,7 +50869,7 @@
         <v>891</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -50695,7 +50887,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>905</v>
@@ -50709,10 +50901,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>1</v>
@@ -50727,7 +50919,7 @@
         <v>891</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -50745,7 +50937,7 @@
         <v>44</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>905</v>
@@ -50759,10 +50951,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>1</v>
@@ -50777,7 +50969,7 @@
         <v>891</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -50795,7 +50987,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>905</v>
@@ -50809,10 +51001,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>1</v>
@@ -50827,7 +51019,7 @@
         <v>891</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -50845,7 +51037,7 @@
         <v>44</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>905</v>
@@ -50859,10 +51051,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>1</v>
@@ -50877,7 +51069,7 @@
         <v>891</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>12</v>
@@ -50895,7 +51087,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>905</v>
@@ -50909,10 +51101,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
@@ -50927,7 +51119,7 @@
         <v>891</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>12</v>
@@ -50945,7 +51137,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>905</v>
@@ -50959,10 +51151,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -50977,7 +51169,7 @@
         <v>891</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>12</v>
@@ -50995,7 +51187,7 @@
         <v>44</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>905</v>
@@ -51009,10 +51201,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
@@ -51027,7 +51219,7 @@
         <v>891</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>12</v>
@@ -51045,7 +51237,7 @@
         <v>44</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>905</v>
@@ -51059,10 +51251,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
@@ -51077,7 +51269,7 @@
         <v>891</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>12</v>
@@ -51095,7 +51287,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>905</v>
@@ -51109,10 +51301,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1</v>
@@ -51127,7 +51319,7 @@
         <v>891</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>12</v>
@@ -51145,7 +51337,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>905</v>
@@ -51159,10 +51351,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
@@ -51177,7 +51369,7 @@
         <v>891</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>12</v>
@@ -51195,7 +51387,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>905</v>
@@ -51209,10 +51401,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
@@ -51227,7 +51419,7 @@
         <v>891</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>12</v>
@@ -51245,7 +51437,7 @@
         <v>44</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>905</v>
@@ -51259,10 +51451,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>1</v>
@@ -51277,7 +51469,7 @@
         <v>891</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>12</v>
@@ -51295,7 +51487,7 @@
         <v>44</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>905</v>
@@ -51309,10 +51501,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
@@ -51327,7 +51519,7 @@
         <v>891</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>12</v>
@@ -51345,7 +51537,7 @@
         <v>44</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>905</v>
@@ -51359,10 +51551,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
@@ -51377,7 +51569,7 @@
         <v>891</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>12</v>
@@ -51395,7 +51587,7 @@
         <v>44</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>905</v>
@@ -51409,10 +51601,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1</v>
@@ -51427,7 +51619,7 @@
         <v>891</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>12</v>
@@ -51445,7 +51637,7 @@
         <v>44</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>905</v>
@@ -51459,10 +51651,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
@@ -51477,7 +51669,7 @@
         <v>891</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>12</v>
@@ -51495,7 +51687,7 @@
         <v>44</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>905</v>
@@ -51509,10 +51701,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>1</v>
@@ -51527,7 +51719,7 @@
         <v>891</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>12</v>
@@ -51545,7 +51737,7 @@
         <v>44</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>905</v>
@@ -51559,10 +51751,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>1</v>
@@ -51577,7 +51769,7 @@
         <v>891</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>12</v>
@@ -51595,7 +51787,7 @@
         <v>44</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>905</v>
@@ -51609,10 +51801,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
@@ -51627,7 +51819,7 @@
         <v>891</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12</v>
@@ -51645,7 +51837,7 @@
         <v>44</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>905</v>
@@ -51659,10 +51851,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1</v>
@@ -51677,7 +51869,7 @@
         <v>891</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>12</v>
@@ -51695,7 +51887,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>905</v>
@@ -51709,10 +51901,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1</v>
@@ -51727,7 +51919,7 @@
         <v>891</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>12</v>
@@ -51745,7 +51937,7 @@
         <v>44</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>905</v>
@@ -51759,10 +51951,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>1</v>
@@ -51777,7 +51969,7 @@
         <v>891</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>12</v>
@@ -51795,7 +51987,7 @@
         <v>44</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>905</v>
@@ -51809,10 +52001,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
@@ -51827,7 +52019,7 @@
         <v>891</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>12</v>
@@ -51845,7 +52037,7 @@
         <v>44</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>905</v>
@@ -51859,10 +52051,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
@@ -51877,7 +52069,7 @@
         <v>891</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>12</v>
@@ -51895,7 +52087,7 @@
         <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>905</v>
@@ -51909,10 +52101,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
@@ -51927,7 +52119,7 @@
         <v>891</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>12</v>
@@ -51945,7 +52137,7 @@
         <v>44</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>905</v>
@@ -51959,10 +52151,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>1</v>
@@ -51977,7 +52169,7 @@
         <v>891</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>12</v>
@@ -51995,7 +52187,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>905</v>
@@ -52009,10 +52201,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>1</v>
@@ -52027,7 +52219,7 @@
         <v>891</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>12</v>
@@ -52045,7 +52237,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>905</v>
@@ -52059,10 +52251,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -52077,7 +52269,7 @@
         <v>891</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>12</v>
@@ -52095,7 +52287,7 @@
         <v>44</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>905</v>
@@ -52109,10 +52301,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>1</v>
@@ -52127,7 +52319,7 @@
         <v>891</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>12</v>
@@ -52145,7 +52337,7 @@
         <v>44</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>905</v>
@@ -52159,10 +52351,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
@@ -52177,7 +52369,7 @@
         <v>891</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>12</v>
@@ -52195,7 +52387,7 @@
         <v>44</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>905</v>
@@ -52209,10 +52401,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
@@ -52227,7 +52419,7 @@
         <v>891</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>12</v>
@@ -52245,7 +52437,7 @@
         <v>44</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>905</v>
@@ -52259,10 +52451,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
@@ -52277,7 +52469,7 @@
         <v>891</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>12</v>
@@ -52295,7 +52487,7 @@
         <v>44</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>905</v>
@@ -52309,10 +52501,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
@@ -52327,7 +52519,7 @@
         <v>891</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>12</v>
@@ -52345,7 +52537,7 @@
         <v>44</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>905</v>
@@ -52448,10 +52640,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -52469,7 +52661,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3</v>
@@ -52497,10 +52689,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -52518,7 +52710,7 @@
         <v>61</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3</v>
@@ -52539,10 +52731,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -52560,7 +52752,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
@@ -52584,7 +52776,7 @@
         <v>165</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -52602,7 +52794,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3</v>
@@ -52623,10 +52815,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -52644,7 +52836,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
@@ -52665,10 +52857,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -52686,7 +52878,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
@@ -52707,10 +52899,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -52728,7 +52920,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
@@ -52749,10 +52941,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -52770,7 +52962,7 @@
         <v>61</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
@@ -52791,10 +52983,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1865</v>
+        <v>1873</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -52812,7 +53004,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
@@ -52833,10 +53025,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -52854,7 +53046,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3</v>
@@ -52875,10 +53067,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -52896,7 +53088,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
@@ -52917,10 +53109,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -52938,7 +53130,7 @@
         <v>61</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -52959,10 +53151,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -52980,7 +53172,7 @@
         <v>61</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -53001,10 +53193,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -53022,7 +53214,7 @@
         <v>61</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3</v>
@@ -53043,10 +53235,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -53064,7 +53256,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3</v>
@@ -53085,10 +53277,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -53106,7 +53298,7 @@
         <v>61</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3</v>
@@ -53127,10 +53319,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -53148,7 +53340,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
@@ -53169,10 +53361,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -53190,7 +53382,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
@@ -53211,10 +53403,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -53232,7 +53424,7 @@
         <v>61</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3</v>
@@ -53253,10 +53445,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -53274,7 +53466,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3</v>
@@ -53295,10 +53487,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -53316,7 +53508,7 @@
         <v>61</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
@@ -53337,10 +53529,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -53358,7 +53550,7 @@
         <v>61</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
@@ -53379,10 +53571,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -53400,7 +53592,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>3</v>
@@ -53421,10 +53613,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -53442,7 +53634,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>3</v>
@@ -53463,10 +53655,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -53484,7 +53676,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3</v>
@@ -53508,7 +53700,7 @@
         <v>1048</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>62</v>
@@ -53523,10 +53715,10 @@
         <v>428</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>3</v>
@@ -53541,7 +53733,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>996</v>
@@ -53555,10 +53747,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -53567,7 +53759,7 @@
         <v>892</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>261</v>
@@ -53576,7 +53768,7 @@
         <v>988</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>3</v>
@@ -53591,7 +53783,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>1014</v>
@@ -53605,10 +53797,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -53617,7 +53809,7 @@
         <v>892</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>261</v>
@@ -53626,7 +53818,7 @@
         <v>988</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>3</v>
@@ -53641,7 +53833,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>1014</v>
@@ -53655,10 +53847,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -53667,7 +53859,7 @@
         <v>892</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>261</v>
@@ -53676,7 +53868,7 @@
         <v>988</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>3</v>
@@ -53691,7 +53883,7 @@
         <v>44</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>1014</v>
@@ -53705,10 +53897,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -53717,7 +53909,7 @@
         <v>892</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>261</v>
@@ -53726,7 +53918,7 @@
         <v>988</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3</v>
@@ -53741,7 +53933,7 @@
         <v>44</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>1014</v>
@@ -53755,10 +53947,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -53767,7 +53959,7 @@
         <v>892</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>261</v>
@@ -53776,7 +53968,7 @@
         <v>988</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3</v>
@@ -53791,7 +53983,7 @@
         <v>44</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>1014</v>
@@ -53805,10 +53997,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>62</v>
@@ -53817,7 +54009,7 @@
         <v>892</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>261</v>
@@ -53826,7 +54018,7 @@
         <v>988</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>3</v>
@@ -53855,10 +54047,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -53867,7 +54059,7 @@
         <v>892</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>261</v>
@@ -53876,7 +54068,7 @@
         <v>988</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>3</v>
@@ -53891,7 +54083,7 @@
         <v>44</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>1014</v>
@@ -53905,7 +54097,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>933</v>
@@ -53917,16 +54109,16 @@
         <v>892</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>738</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>3</v>
@@ -53955,10 +54147,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>62</v>
@@ -53976,7 +54168,7 @@
         <v>978</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>3</v>
@@ -53991,7 +54183,7 @@
         <v>44</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>905</v>
@@ -54005,7 +54197,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>975</v>
@@ -54026,7 +54218,7 @@
         <v>978</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>3</v>
@@ -54058,7 +54250,7 @@
         <v>1102</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>62</v>
@@ -54076,7 +54268,7 @@
         <v>1106</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
@@ -54091,7 +54283,7 @@
         <v>44</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>905</v>
@@ -54108,7 +54300,7 @@
         <v>889</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -54126,7 +54318,7 @@
         <v>893</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3</v>
@@ -54141,7 +54333,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>905</v>
@@ -54155,10 +54347,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -54176,7 +54368,7 @@
         <v>893</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>3</v>
@@ -54205,10 +54397,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -54226,7 +54418,7 @@
         <v>893</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>3</v>
@@ -54255,10 +54447,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -54276,7 +54468,7 @@
         <v>893</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3</v>
@@ -54291,7 +54483,7 @@
         <v>44</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>905</v>
@@ -54308,7 +54500,7 @@
         <v>895</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -54326,7 +54518,7 @@
         <v>893</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3</v>
@@ -54341,7 +54533,7 @@
         <v>44</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>905</v>
@@ -54355,10 +54547,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>62</v>
@@ -54376,7 +54568,7 @@
         <v>796</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>3</v>
@@ -54391,7 +54583,7 @@
         <v>44</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>996</v>
@@ -54405,10 +54597,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>62</v>
@@ -54426,7 +54618,7 @@
         <v>796</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
@@ -54441,7 +54633,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>996</v>
@@ -54455,10 +54647,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>62</v>
@@ -54476,7 +54668,7 @@
         <v>796</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3</v>
@@ -54491,7 +54683,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>996</v>
@@ -54505,10 +54697,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -54526,7 +54718,7 @@
         <v>796</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>3</v>
@@ -54541,7 +54733,7 @@
         <v>44</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>905</v>
@@ -54553,15 +54745,15 @@
         <v>60</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>1946</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>62</v>
@@ -54579,7 +54771,7 @@
         <v>796</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3</v>
@@ -54594,7 +54786,7 @@
         <v>44</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>905</v>
@@ -54608,10 +54800,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -54629,7 +54821,7 @@
         <v>796</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3</v>
@@ -54644,7 +54836,7 @@
         <v>44</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>1014</v>
@@ -54658,10 +54850,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -54679,7 +54871,7 @@
         <v>796</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3</v>
@@ -54694,7 +54886,7 @@
         <v>44</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>1014</v>
@@ -54708,10 +54900,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
@@ -54729,7 +54921,7 @@
         <v>796</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>3</v>
@@ -54744,7 +54936,7 @@
         <v>44</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>1014</v>
@@ -54761,7 +54953,7 @@
         <v>1315</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>62</v>
@@ -54779,7 +54971,7 @@
         <v>796</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
@@ -54808,10 +55000,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1960</v>
+        <v>1968</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>62</v>
@@ -54820,16 +55012,16 @@
         <v>892</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>3</v>
@@ -54844,7 +55036,7 @@
         <v>44</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>1014</v>
@@ -54858,10 +55050,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -54870,16 +55062,16 @@
         <v>892</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>3</v>
@@ -54894,7 +55086,7 @@
         <v>44</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>1014</v>
@@ -54908,10 +55100,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2</v>
@@ -54920,16 +55112,16 @@
         <v>892</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>218</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>3</v>
@@ -54944,7 +55136,7 @@
         <v>44</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>1014</v>
@@ -55048,13 +55240,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>892</v>
@@ -55069,7 +55261,7 @@
         <v>978</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>44</v>
@@ -55084,7 +55276,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>1014</v>
@@ -55096,21 +55288,21 @@
         <v>60</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>892</v>
@@ -55125,7 +55317,7 @@
         <v>978</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>44</v>
@@ -55140,7 +55332,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>905</v>
@@ -55152,21 +55344,21 @@
         <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>892</v>
@@ -55181,7 +55373,7 @@
         <v>978</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>44</v>
@@ -55196,7 +55388,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>905</v>
@@ -55208,21 +55400,21 @@
         <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>892</v>
@@ -55264,21 +55456,21 @@
         <v>60</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>892</v>
@@ -55320,18 +55512,18 @@
         <v>60</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>62</v>
@@ -55340,16 +55532,16 @@
         <v>892</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>428</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>57</v>
@@ -55364,7 +55556,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>1014</v>
@@ -55376,7 +55568,7 @@
         <v>59</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
     </row>
   </sheetData>
@@ -55395,12 +55587,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55421,37 +55613,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55459,13 +55651,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>62</v>
@@ -55485,16 +55677,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>62</v>
@@ -55514,16 +55706,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>62</v>
@@ -55543,19 +55735,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>62</v>
@@ -55564,7 +55756,7 @@
         <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2012</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55572,31 +55764,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55607,22 +55799,22 @@
         <v>1482</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>2018</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55633,22 +55825,22 @@
         <v>1521</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55656,16 +55848,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>62</v>
@@ -55682,16 +55874,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>62</v>
@@ -55700,7 +55892,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55708,16 +55900,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>62</v>
@@ -55726,7 +55918,7 @@
         <v>62</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55737,13 +55929,13 @@
         <v>1506</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>2020</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>62</v>
@@ -55760,19 +55952,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>62</v>
@@ -55792,16 +55984,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>62</v>
@@ -55810,7 +56002,7 @@
         <v>62</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55818,19 +56010,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>62</v>
@@ -55847,28 +56039,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55876,19 +56068,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>62</v>
@@ -55902,25 +56094,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55928,19 +56120,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>62</v>
@@ -55954,22 +56146,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2051</v>
+        <v>2059</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2052</v>
+        <v>2060</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>62</v>
@@ -55986,16 +56178,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2054</v>
+        <v>2062</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>62</v>
@@ -56004,7 +56196,7 @@
         <v>62</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56012,28 +56204,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2056</v>
+        <v>2064</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2057</v>
+        <v>2065</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2058</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56041,22 +56233,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2059</v>
+        <v>2067</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>62</v>
@@ -56071,16 +56263,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2063</v>
+        <v>2071</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>62</v>
@@ -56097,28 +56289,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2066</v>
+        <v>2074</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>62</v>
@@ -56129,19 +56321,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>62</v>
@@ -56155,19 +56347,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2070</v>
+        <v>2078</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2071</v>
+        <v>2079</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2072</v>
+        <v>2080</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>62</v>
@@ -56184,19 +56376,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2073</v>
+        <v>2081</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2075</v>
+        <v>2083</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>62</v>
@@ -56213,25 +56405,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2076</v>
+        <v>2084</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2077</v>
+        <v>2085</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>62</v>
@@ -56242,19 +56434,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2078</v>
+        <v>2086</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>2079</v>
+        <v>2087</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>2080</v>
+        <v>2088</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>62</v>
@@ -56271,19 +56463,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2081</v>
+        <v>2089</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>2075</v>
+        <v>2083</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>62</v>
@@ -56300,13 +56492,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>2074</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>62</v>
@@ -56326,22 +56518,22 @@
         <v>1471</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>2083</v>
+        <v>2091</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>2084</v>
+        <v>2092</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>2085</v>
+        <v>2093</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>62</v>
@@ -56352,28 +56544,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2086</v>
+        <v>2094</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>2089</v>
+        <v>2097</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56381,16 +56573,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2090</v>
+        <v>2098</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>2091</v>
+        <v>2099</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>62</v>
@@ -56407,16 +56599,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2092</v>
+        <v>2100</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>2093</v>
+        <v>2101</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>2094</v>
+        <v>2102</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>62</v>
@@ -56433,19 +56625,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>2096</v>
+        <v>2104</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>62</v>
@@ -56462,16 +56654,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2097</v>
+        <v>2105</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>62</v>
@@ -56488,19 +56680,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2099</v>
+        <v>2107</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>2101</v>
+        <v>2109</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>62</v>
@@ -56517,19 +56709,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2102</v>
+        <v>2110</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>2103</v>
+        <v>2111</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>62</v>
@@ -56546,19 +56738,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2104</v>
+        <v>2112</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>2105</v>
+        <v>2113</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>2106</v>
+        <v>2114</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>62</v>
@@ -56578,16 +56770,16 @@
         <v>1545</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>2107</v>
+        <v>2115</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>62</v>
@@ -56607,16 +56799,16 @@
         <v>1551</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>62</v>
@@ -56628,7 +56820,7 @@
         <v>62</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>2110</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56639,13 +56831,13 @@
         <v>1568</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>2111</v>
+        <v>2119</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>62</v>
@@ -56662,25 +56854,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>2112</v>
+        <v>2120</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>2113</v>
+        <v>2121</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>62</v>
@@ -56694,16 +56886,16 @@
         <v>1573</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>2114</v>
+        <v>2122</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>2115</v>
+        <v>2123</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>62</v>
@@ -56723,16 +56915,16 @@
         <v>1576</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>2116</v>
+        <v>2124</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>62</v>
@@ -56752,13 +56944,13 @@
         <v>1601</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>2120</v>
+        <v>2128</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>62</v>
@@ -56770,7 +56962,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>2121</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56781,13 +56973,13 @@
         <v>1609</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2122</v>
+        <v>2130</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>62</v>
@@ -56796,7 +56988,7 @@
         <v>62</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56807,22 +56999,22 @@
         <v>1613</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>2123</v>
+        <v>2131</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2124</v>
+        <v>2132</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56833,19 +57025,19 @@
         <v>1616</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2126</v>
+        <v>2134</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>62</v>
@@ -56859,13 +57051,13 @@
         <v>1627</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>62</v>
@@ -56877,7 +57069,7 @@
         <v>62</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>2128</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56888,14 +57080,14 @@
         <v>1645</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2129</v>
+        <v>2137</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>62</v>
@@ -56915,16 +57107,16 @@
         <v>1652</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>2130</v>
+        <v>2138</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2131</v>
+        <v>2139</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>62</v>
@@ -56944,25 +57136,25 @@
         <v>1659</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2132</v>
+        <v>2140</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56970,25 +57162,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56996,25 +57188,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57022,17 +57214,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2138</v>
+        <v>2146</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>62</v>
@@ -57052,13 +57244,13 @@
         <v>1737</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2142</v>
+        <v>2150</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>62</v>
@@ -57067,6 +57259,35 @@
         <v>62</v>
       </c>
       <c r="J59" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>62</v>
       </c>
     </row>
